--- a/docs/LMER_Microglia_1.xlsx
+++ b/docs/LMER_Microglia_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>logFC</t>
   </si>
@@ -99,12 +99,12 @@
     <t>Bicdl1</t>
   </si>
   <si>
+    <t>Gm15952</t>
+  </si>
+  <si>
     <t>Cers6</t>
   </si>
   <si>
-    <t>Gm15952</t>
-  </si>
-  <si>
     <t>Mrps5</t>
   </si>
   <si>
@@ -126,33 +126,33 @@
     <t>Mapkbp1</t>
   </si>
   <si>
+    <t>Chchd10</t>
+  </si>
+  <si>
     <t>Aplf</t>
   </si>
   <si>
-    <t>Chchd10</t>
-  </si>
-  <si>
     <t>B4galt6</t>
   </si>
   <si>
     <t>Cited4</t>
   </si>
   <si>
+    <t>Trmt112</t>
+  </si>
+  <si>
     <t>Cd9</t>
   </si>
   <si>
-    <t>Trmt112</t>
-  </si>
-  <si>
     <t>Stt3a</t>
   </si>
   <si>
+    <t>Sh3pxd2b</t>
+  </si>
+  <si>
     <t>Mgmt</t>
   </si>
   <si>
-    <t>Sh3pxd2b</t>
-  </si>
-  <si>
     <t>Aars2</t>
   </si>
   <si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Homer3</t>
+  </si>
+  <si>
+    <t>Ciita</t>
+  </si>
+  <si>
+    <t>Dut</t>
   </si>
   <si>
     <t>x</t>
@@ -248,22 +254,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>4.840280385596065</v>
+        <v>4.839119337882206</v>
       </c>
       <c r="C2" t="n">
         <v>2.251260611924739</v>
       </c>
       <c r="D2" t="n">
-        <v>9.842346795867702</v>
+        <v>9.87098777570795</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4921911843184856E-18</v>
+        <v>2.9236364647655287E-18</v>
       </c>
       <c r="F2" t="n">
-        <v>4.76823784306846E-14</v>
+        <v>3.991933228990853E-14</v>
       </c>
       <c r="G2" t="n">
-        <v>28.568318219896916</v>
+        <v>28.810528526334018</v>
       </c>
     </row>
     <row r="3">
@@ -271,22 +277,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.673759171036974</v>
+        <v>2.6741608875448937</v>
       </c>
       <c r="C3" t="n">
         <v>0.08884636852271034</v>
       </c>
       <c r="D3" t="n">
-        <v>7.843667158527685</v>
+        <v>7.922662492081162</v>
       </c>
       <c r="E3" t="n">
-        <v>5.738983995365498E-13</v>
+        <v>3.637341521225954E-13</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9180043736360256E-9</v>
+        <v>2.4832130565409587E-9</v>
       </c>
       <c r="G3" t="n">
-        <v>17.9642214711739</v>
+        <v>18.420461967919238</v>
       </c>
     </row>
     <row r="4">
@@ -294,22 +300,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.017593657725739</v>
+        <v>-4.016182357688573</v>
       </c>
       <c r="C4" t="n">
         <v>10.45517829082317</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.164310160675806</v>
+        <v>-6.219986280387408</v>
       </c>
       <c r="E4" t="n">
-        <v>5.4957676149286716E-9</v>
+        <v>4.1320682848545096E-9</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0813279985922148E-5</v>
+        <v>1.535506076560826E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>9.81575161334257</v>
+        <v>10.09629280026218</v>
       </c>
     </row>
     <row r="5">
@@ -317,22 +323,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.176769007064714</v>
+        <v>-4.176549125556527</v>
       </c>
       <c r="C5" t="n">
         <v>1.551467410917347</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.143960791549469</v>
+        <v>-6.203436496163172</v>
       </c>
       <c r="E5" t="n">
-        <v>6.097342899054386E-9</v>
+        <v>4.498333313492972E-9</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0813279985922148E-5</v>
+        <v>1.535506076560826E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>9.723389486863727</v>
+        <v>10.020556540746076</v>
       </c>
     </row>
     <row r="6">
@@ -340,22 +346,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>2.734838453629135</v>
+        <v>2.734838453629114</v>
       </c>
       <c r="C6" t="n">
         <v>0.13050068733359074</v>
       </c>
       <c r="D6" t="n">
-        <v>6.09605676765896</v>
+        <v>6.156638724864237</v>
       </c>
       <c r="E6" t="n">
-        <v>7.780366626029013E-9</v>
+        <v>5.715391083919296E-9</v>
       </c>
       <c r="F6" t="n">
-        <v>2.124662518236003E-5</v>
+        <v>1.5607589971966817E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>9.506667775441102</v>
+        <v>9.807030693018275</v>
       </c>
     </row>
     <row r="7">
@@ -363,22 +369,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>2.3764006080504245</v>
+        <v>2.3766082581590138</v>
       </c>
       <c r="C7" t="n">
         <v>0.12003458654975627</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7290769528630525</v>
+        <v>5.786249683289923</v>
       </c>
       <c r="E7" t="n">
-        <v>4.849518859445773E-8</v>
+        <v>3.6629536003605444E-8</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1035888417812095E-4</v>
+        <v>8.335661409887145E-5</v>
       </c>
       <c r="G7" t="n">
-        <v>7.880538487873514</v>
+        <v>8.151305889123986</v>
       </c>
     </row>
     <row r="8">
@@ -386,22 +392,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2.76965642346956</v>
+        <v>2.767472783578249</v>
       </c>
       <c r="C8" t="n">
         <v>0.18554244113826976</v>
       </c>
       <c r="D8" t="n">
-        <v>5.530729738869618</v>
+        <v>5.577976942891436</v>
       </c>
       <c r="E8" t="n">
-        <v>1.266834775669413E-7</v>
+        <v>1.0097373678767834E-7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4710517181414523E-4</v>
+        <v>1.9695648601413717E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.028060911225673</v>
+        <v>7.248418799768247</v>
       </c>
     </row>
     <row r="9">
@@ -409,22 +415,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.319908478906737</v>
+        <v>-7.305272984047191</v>
       </c>
       <c r="C9" t="n">
         <v>4.063142434037722</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.282061925653769</v>
+        <v>-5.318034299384595</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0968993118208E-7</v>
+        <v>3.464510467440979E-7</v>
       </c>
       <c r="F9" t="n">
-        <v>6.992382900450149E-4</v>
+        <v>5.780749732094404E-4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.987218204407862</v>
+        <v>6.151888399971796</v>
       </c>
     </row>
     <row r="10">
@@ -432,22 +438,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>1.3400879436282171</v>
+        <v>1.3400879436281885</v>
       </c>
       <c r="C10" t="n">
         <v>0.04085633974476276</v>
       </c>
       <c r="D10" t="n">
-        <v>5.24557318593161</v>
+        <v>5.297637738972601</v>
       </c>
       <c r="E10" t="n">
-        <v>4.852764433612829E-7</v>
+        <v>3.810366748853789E-7</v>
       </c>
       <c r="F10" t="n">
-        <v>7.362182841838841E-4</v>
+        <v>5.780749732094404E-4</v>
       </c>
       <c r="G10" t="n">
-        <v>5.837196369461953</v>
+        <v>6.067327621177679</v>
       </c>
     </row>
     <row r="11">
@@ -455,22 +461,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>2.3394163559867547</v>
+        <v>2.337930253951937</v>
       </c>
       <c r="C11" t="n">
         <v>0.16042308794151108</v>
       </c>
       <c r="D11" t="n">
-        <v>5.200406333267238</v>
+        <v>5.247393119674083</v>
       </c>
       <c r="E11" t="n">
-        <v>5.97798408766473E-7</v>
+        <v>4.812047243112348E-7</v>
       </c>
       <c r="F11" t="n">
-        <v>7.785185696387571E-4</v>
+        <v>6.109013383373888E-4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.65247803247261</v>
+        <v>5.8599622634137685</v>
       </c>
     </row>
     <row r="12">
@@ -478,22 +484,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>1.438886518786352</v>
+        <v>1.4394894510877707</v>
       </c>
       <c r="C12" t="n">
         <v>0.09435186432694766</v>
       </c>
       <c r="D12" t="n">
-        <v>5.189973469640093</v>
+        <v>5.242531868942803</v>
       </c>
       <c r="E12" t="n">
-        <v>6.271938088491525E-7</v>
+        <v>4.921572229171874E-7</v>
       </c>
       <c r="F12" t="n">
-        <v>7.785185696387571E-4</v>
+        <v>6.109013383373888E-4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.609966526873171</v>
+        <v>5.839970692933118</v>
       </c>
     </row>
     <row r="13">
@@ -501,22 +507,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8651774797933938</v>
+        <v>1.8667165565062587</v>
       </c>
       <c r="C13" t="n">
         <v>0.1874755901001292</v>
       </c>
       <c r="D13" t="n">
-        <v>5.150674209201747</v>
+        <v>5.200408751574505</v>
       </c>
       <c r="E13" t="n">
-        <v>7.510776965663362E-7</v>
+        <v>5.977924180872083E-7</v>
       </c>
       <c r="F13" t="n">
-        <v>8.546012390763961E-4</v>
+        <v>6.801881397135619E-4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.450359117043055</v>
+        <v>5.66727315804955</v>
       </c>
     </row>
     <row r="14">
@@ -524,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7813781191217047</v>
+        <v>0.7813781191216917</v>
       </c>
       <c r="C14" t="n">
         <v>0.02382250363175926</v>
       </c>
       <c r="D14" t="n">
-        <v>5.085451713868532</v>
+        <v>5.1357614652919334</v>
       </c>
       <c r="E14" t="n">
-        <v>1.010988539544347E-6</v>
+        <v>8.040617950634015E-7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0010618490399183472</v>
+        <v>8.44512288445822E-4</v>
       </c>
       <c r="G14" t="n">
-        <v>5.1873253897069365</v>
+        <v>5.4040969841857365</v>
       </c>
     </row>
     <row r="15">
@@ -547,22 +553,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>3.4681000927860053</v>
+        <v>3.468098875571632</v>
       </c>
       <c r="C15" t="n">
         <v>0.4110066616121732</v>
       </c>
       <c r="D15" t="n">
-        <v>4.906008325625935</v>
+        <v>4.954666914612911</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2604416566068605E-6</v>
+        <v>1.8207992538030215E-6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0022045764556650055</v>
+        <v>0.0017757995008161754</v>
       </c>
       <c r="G15" t="n">
-        <v>4.475848340611012</v>
+        <v>4.679148338938443</v>
       </c>
     </row>
     <row r="16">
@@ -570,22 +576,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>3.066877364387279</v>
+        <v>3.0675336626469925</v>
       </c>
       <c r="C16" t="n">
         <v>0.2633938588463256</v>
       </c>
       <c r="D16" t="n">
-        <v>4.785632597428186</v>
+        <v>4.8341898916488715</v>
       </c>
       <c r="E16" t="n">
-        <v>3.836043539746143E-6</v>
+        <v>3.1023773595598357E-6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003491822566112922</v>
+        <v>0.0028239906978286666</v>
       </c>
       <c r="G16" t="n">
-        <v>4.0088446604484655</v>
+        <v>4.207139250726032</v>
       </c>
     </row>
     <row r="17">
@@ -593,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>2.402455413352721</v>
+        <v>2.403144126745273</v>
       </c>
       <c r="C17" t="n">
         <v>0.20983406074980793</v>
       </c>
       <c r="D17" t="n">
-        <v>4.758009789129859</v>
+        <v>4.805252439222191</v>
       </c>
       <c r="E17" t="n">
-        <v>4.3255900253390294E-6</v>
+        <v>3.5213579726048254E-6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0036913503878736945</v>
+        <v>0.003005038859871643</v>
       </c>
       <c r="G17" t="n">
-        <v>3.902869955937007</v>
+        <v>4.095017467517414</v>
       </c>
     </row>
     <row r="18">
@@ -616,22 +622,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.918137836386057</v>
+        <v>0.9180785499914399</v>
       </c>
       <c r="C18" t="n">
         <v>0.04371905488684337</v>
       </c>
       <c r="D18" t="n">
-        <v>4.724710002430614</v>
+        <v>4.770745215035462</v>
       </c>
       <c r="E18" t="n">
-        <v>4.996362485841401E-6</v>
+        <v>4.0928150883852404E-6</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004012960787157558</v>
+        <v>0.0032872527774595334</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7757127551738527</v>
+        <v>3.961955687524581</v>
       </c>
     </row>
     <row r="19">
@@ -639,22 +645,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8666544063895689</v>
+        <v>0.8665922060803849</v>
       </c>
       <c r="C19" t="n">
         <v>0.0454843391380323</v>
       </c>
       <c r="D19" t="n">
-        <v>4.619549157919468</v>
+        <v>4.664802630441626</v>
       </c>
       <c r="E19" t="n">
-        <v>7.84137044095299E-6</v>
+        <v>6.464450203256852E-6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0059481151111540065</v>
+        <v>0.004903644615292725</v>
       </c>
       <c r="G19" t="n">
-        <v>3.378481828177957</v>
+        <v>3.557838043662519</v>
       </c>
     </row>
     <row r="20">
@@ -662,22 +668,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>4.258891041098451</v>
+        <v>4.26090822977641</v>
       </c>
       <c r="C20" t="n">
         <v>0.867677278109132</v>
       </c>
       <c r="D20" t="n">
-        <v>4.538738258715061</v>
+        <v>4.573277657322785</v>
       </c>
       <c r="E20" t="n">
-        <v>1.1034161857378862E-5</v>
+        <v>9.540169774864857E-6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007929497157928999</v>
+        <v>0.006855867268737092</v>
       </c>
       <c r="G20" t="n">
-        <v>3.0777629164071154</v>
+        <v>3.2141434914726243</v>
       </c>
     </row>
     <row r="21">
@@ -685,22 +691,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>2.8143709328056223</v>
+        <v>2.8168269472471463</v>
       </c>
       <c r="C21" t="n">
         <v>0.37728993453531307</v>
       </c>
       <c r="D21" t="n">
-        <v>4.514394400612392</v>
+        <v>4.559595190666452</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2220026868415063E-5</v>
+        <v>1.0107072540303854E-5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.008342612343066965</v>
+        <v>0.006900098423265441</v>
       </c>
       <c r="G21" t="n">
-        <v>2.987955251938006</v>
+        <v>3.1632010958042756</v>
       </c>
     </row>
     <row r="22">
@@ -708,22 +714,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.7640661973899827</v>
+        <v>-3.767028557676346</v>
       </c>
       <c r="C22" t="n">
         <v>7.598080304675759</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.448982139782361</v>
+        <v>-4.4902703134222355</v>
       </c>
       <c r="E22" t="n">
-        <v>1.604616383545706E-5</v>
+        <v>1.351578645705877E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.010433062905206224</v>
+        <v>0.00878783563260383</v>
       </c>
       <c r="G22" t="n">
-        <v>2.7484539813247615</v>
+        <v>2.906861367588485</v>
       </c>
     </row>
     <row r="23">
@@ -731,22 +737,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>1.3247399099119985</v>
+        <v>1.324819440234992</v>
       </c>
       <c r="C23" t="n">
         <v>0.07966306563872107</v>
       </c>
       <c r="D23" t="n">
-        <v>4.431227430439958</v>
+        <v>4.475078619902663</v>
       </c>
       <c r="E23" t="n">
-        <v>1.726921418288295E-5</v>
+        <v>1.4398592814165961E-5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.010717902293321991</v>
+        <v>0.008936290285664637</v>
       </c>
       <c r="G23" t="n">
-        <v>2.6839056321728414</v>
+        <v>2.851084924672012</v>
       </c>
     </row>
     <row r="24">
@@ -754,22 +760,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>2.076029701347405</v>
+        <v>1.266720155472048</v>
       </c>
       <c r="C24" t="n">
-        <v>0.19280566718249564</v>
+        <v>0.15888046664516112</v>
       </c>
       <c r="D24" t="n">
-        <v>4.414486997451678</v>
+        <v>4.445052402173931</v>
       </c>
       <c r="E24" t="n">
-        <v>1.850417064193313E-5</v>
+        <v>1.6309478556722715E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.010985041128041521</v>
+        <v>0.009348086508948965</v>
       </c>
       <c r="G24" t="n">
-        <v>2.6232253161930608</v>
+        <v>2.7412663822452235</v>
       </c>
     </row>
     <row r="25">
@@ -777,22 +783,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>1.2672244230190834</v>
+        <v>2.071042991903448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.15888046664516112</v>
+        <v>0.19280566718249564</v>
       </c>
       <c r="D25" t="n">
-        <v>4.40372627150042</v>
+        <v>4.443253671653784</v>
       </c>
       <c r="E25" t="n">
-        <v>1.9342367638515688E-5</v>
+        <v>1.6431381002986318E-5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01100419532234555</v>
+        <v>0.009348086508948965</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5843128831638715</v>
+        <v>2.7347055507316416</v>
       </c>
     </row>
     <row r="26">
@@ -800,22 +806,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>2.6059133228953866</v>
+        <v>2.6072954933125723</v>
       </c>
       <c r="C26" t="n">
         <v>0.3503086381252986</v>
       </c>
       <c r="D26" t="n">
-        <v>4.359514452655862</v>
+        <v>4.403679077832031</v>
       </c>
       <c r="E26" t="n">
-        <v>2.318532010962188E-5</v>
+        <v>1.934613492384727E-5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.012662894431071086</v>
+        <v>0.010566085050008424</v>
       </c>
       <c r="G26" t="n">
-        <v>2.425201454874653</v>
+        <v>2.5908717865347217</v>
       </c>
     </row>
     <row r="27">
@@ -823,22 +829,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>1.4333798749290427</v>
+        <v>1.435020174050352</v>
       </c>
       <c r="C27" t="n">
         <v>0.5950083648501483</v>
       </c>
       <c r="D27" t="n">
-        <v>4.250893265834314</v>
+        <v>4.291751134484883</v>
       </c>
       <c r="E27" t="n">
-        <v>3.599054585511794E-5</v>
+        <v>3.053186955075944E-5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.018900573580991554</v>
+        <v>0.016033928724848823</v>
       </c>
       <c r="G27" t="n">
-        <v>2.039568427123445</v>
+        <v>2.1894389443522257</v>
       </c>
     </row>
     <row r="28">
@@ -846,22 +852,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>2.9087181223946508</v>
+        <v>2.908340233961255</v>
       </c>
       <c r="C28" t="n">
         <v>0.3322718873586403</v>
       </c>
       <c r="D28" t="n">
-        <v>4.220766299140701</v>
+        <v>4.261194698031029</v>
       </c>
       <c r="E28" t="n">
-        <v>4.060232261067104E-5</v>
+        <v>3.453214112974578E-5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.020216972522800455</v>
+        <v>0.017323682154845362</v>
       </c>
       <c r="G28" t="n">
-        <v>1.9339530461522783</v>
+        <v>2.0812406142664273</v>
       </c>
     </row>
     <row r="29">
@@ -869,22 +875,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>1.1030516367340482</v>
+        <v>1.1024965890812883</v>
       </c>
       <c r="C29" t="n">
         <v>0.07613923793636006</v>
       </c>
       <c r="D29" t="n">
-        <v>4.2155361124024004</v>
+        <v>4.254135139921557</v>
       </c>
       <c r="E29" t="n">
-        <v>4.145856383758699E-5</v>
+        <v>3.552534790798814E-5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.020216972522800455</v>
+        <v>0.017323682154845362</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9156776149387689</v>
+        <v>2.056328896249017</v>
       </c>
     </row>
     <row r="30">
@@ -892,22 +898,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>3.41103594366299</v>
+        <v>3.4075950890881748</v>
       </c>
       <c r="C30" t="n">
         <v>1.6577017770589186</v>
       </c>
       <c r="D30" t="n">
-        <v>4.143090694671289</v>
+        <v>4.176110442629705</v>
       </c>
       <c r="E30" t="n">
-        <v>5.5249593104595526E-5</v>
+        <v>4.8492792018368894E-5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.026013032560349907</v>
+        <v>0.022831744214441688</v>
       </c>
       <c r="G30" t="n">
-        <v>1.6643714388997966</v>
+        <v>1.7831528394188183</v>
       </c>
     </row>
     <row r="31">
@@ -915,22 +921,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>1.8490927132065176</v>
+        <v>1.8470108244092842</v>
       </c>
       <c r="C31" t="n">
         <v>0.20601602635429003</v>
       </c>
       <c r="D31" t="n">
-        <v>4.1271209705675975</v>
+        <v>4.162318573631338</v>
       </c>
       <c r="E31" t="n">
-        <v>5.8831905657523205E-5</v>
+        <v>5.121286093064552E-5</v>
       </c>
       <c r="F31" t="n">
-        <v>0.026776361328260726</v>
+        <v>0.023308680104901128</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6094366511116878</v>
+        <v>1.7352791955527955</v>
       </c>
     </row>
     <row r="32">
@@ -938,22 +944,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>2.3868477140506865</v>
+        <v>2.389556582339913</v>
       </c>
       <c r="C32" t="n">
         <v>0.25239803918758424</v>
       </c>
       <c r="D32" t="n">
-        <v>4.108292121449598</v>
+        <v>4.153083656799972</v>
       </c>
       <c r="E32" t="n">
-        <v>6.334093413640775E-5</v>
+        <v>5.311513194456942E-5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.027898616603177787</v>
+        <v>0.023394645534553254</v>
       </c>
       <c r="G32" t="n">
-        <v>1.5448826392762323</v>
+        <v>1.7032932882884415</v>
       </c>
     </row>
     <row r="33">
@@ -961,22 +967,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>1.966412719070771</v>
+        <v>1.8460486543645318</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2060444458092608</v>
+        <v>0.16526313486914582</v>
       </c>
       <c r="D33" t="n">
-        <v>4.081043872754972</v>
+        <v>4.116145373483914</v>
       </c>
       <c r="E33" t="n">
-        <v>7.045478773737845E-5</v>
+        <v>6.142156201837464E-5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02958294382027326</v>
+        <v>0.02573495539277327</v>
       </c>
       <c r="G33" t="n">
-        <v>1.451878300050442</v>
+        <v>1.5759167397787115</v>
       </c>
     </row>
     <row r="34">
@@ -984,22 +990,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>1.8464814888106527</v>
+        <v>1.9636898237601434</v>
       </c>
       <c r="C34" t="n">
-        <v>0.16526313486914582</v>
+        <v>0.2060444458092608</v>
       </c>
       <c r="D34" t="n">
-        <v>4.077269969804138</v>
+        <v>4.112940096951609</v>
       </c>
       <c r="E34" t="n">
-        <v>7.149825297121852E-5</v>
+        <v>6.219814911099443E-5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02958294382027326</v>
+        <v>0.02573495539277327</v>
       </c>
       <c r="G34" t="n">
-        <v>1.4390359587019423</v>
+        <v>1.5649063244947463</v>
       </c>
     </row>
     <row r="35">
@@ -1007,22 +1013,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>3.478928022952833</v>
+        <v>3.4741972636768357</v>
       </c>
       <c r="C35" t="n">
         <v>0.7694511272447077</v>
       </c>
       <c r="D35" t="n">
-        <v>4.031455497526486</v>
+        <v>4.063519219044983</v>
       </c>
       <c r="E35" t="n">
-        <v>8.540197158977125E-5</v>
+        <v>7.542651789898382E-5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.034296427061374604</v>
+        <v>0.02987540834564752</v>
       </c>
       <c r="G35" t="n">
-        <v>1.2838890240973653</v>
+        <v>1.3960051723934113</v>
       </c>
     </row>
     <row r="36">
@@ -1030,22 +1036,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7919407609895994</v>
+        <v>0.7921418915615763</v>
       </c>
       <c r="C36" t="n">
         <v>0.04166396350100452</v>
       </c>
       <c r="D36" t="n">
-        <v>4.0109529209434855</v>
+        <v>4.05098284801179</v>
       </c>
       <c r="E36" t="n">
-        <v>9.24272267252688E-5</v>
+        <v>7.918663493919399E-5</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03507334715626699</v>
+        <v>0.02987540834564752</v>
       </c>
       <c r="G36" t="n">
-        <v>1.2149133240107597</v>
+        <v>1.3534197409112263</v>
       </c>
     </row>
     <row r="37">
@@ -1053,22 +1059,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.292930787970946</v>
+        <v>4.686777302223424</v>
       </c>
       <c r="C37" t="n">
-        <v>6.3921025608257</v>
+        <v>1.9945814944304767</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.010821360022661</v>
+        <v>4.045757804589664</v>
       </c>
       <c r="E37" t="n">
-        <v>9.247403673836324E-5</v>
+        <v>8.080605321276866E-5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03507334715626699</v>
+        <v>0.02987540834564752</v>
       </c>
       <c r="G37" t="n">
-        <v>1.2144716316512767</v>
+        <v>1.3357015818874842</v>
       </c>
     </row>
     <row r="38">
@@ -1076,22 +1082,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>4.679883343248148</v>
+        <v>-5.297144524690007</v>
       </c>
       <c r="C38" t="n">
-        <v>1.9945814944304767</v>
+        <v>6.3921025608257</v>
       </c>
       <c r="D38" t="n">
-        <v>4.00343097401119</v>
+        <v>-4.045275122753793</v>
       </c>
       <c r="E38" t="n">
-        <v>9.514016797036007E-5</v>
+        <v>8.095723661849702E-5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03510929333695396</v>
+        <v>0.02987540834564752</v>
       </c>
       <c r="G38" t="n">
-        <v>1.189678407752928</v>
+        <v>1.3340657271969825</v>
       </c>
     </row>
     <row r="39">
@@ -1099,22 +1105,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>5.15979200169645</v>
+        <v>5.1577691333759965</v>
       </c>
       <c r="C39" t="n">
         <v>2.12464123256331</v>
       </c>
       <c r="D39" t="n">
-        <v>3.979023575049914</v>
+        <v>4.012923625007785</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0447550682659963E-4</v>
+        <v>9.172877928994297E-5</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03695951728475525</v>
+        <v>0.03254365714076563</v>
       </c>
       <c r="G39" t="n">
-        <v>1.1080578615876435</v>
+        <v>1.2247799582639436</v>
       </c>
     </row>
     <row r="40">
@@ -1122,22 +1128,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>2.3211155050684744</v>
+        <v>1.4373010197840803</v>
       </c>
       <c r="C40" t="n">
-        <v>1.070479571697798</v>
+        <v>0.10828709857018884</v>
       </c>
       <c r="D40" t="n">
-        <v>3.9760995651925213</v>
+        <v>4.009474391322088</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0565069932391206E-4</v>
+        <v>9.295463809065912E-5</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03695951728475525</v>
+        <v>0.03254365714076563</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0983066606751422</v>
+        <v>1.213169718637575</v>
       </c>
     </row>
     <row r="41">
@@ -1145,22 +1151,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>1.436885323932616</v>
+        <v>2.3140926242191484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.10828709857018884</v>
+        <v>1.070479571697798</v>
       </c>
       <c r="D41" t="n">
-        <v>3.9696813650386393</v>
+        <v>3.9675493725921673</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0827454895197085E-4</v>
+        <v>1.0915983084400895E-4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03695951728475525</v>
+        <v>0.037261708258602456</v>
       </c>
       <c r="G41" t="n">
-        <v>1.076923037664443</v>
+        <v>1.072691091636604</v>
       </c>
     </row>
     <row r="42">
@@ -1168,22 +1174,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>1.4472671756642541</v>
+        <v>1.4455931252235368</v>
       </c>
       <c r="C42" t="n">
         <v>0.12652694591597322</v>
       </c>
       <c r="D42" t="n">
-        <v>3.9279771501826564</v>
+        <v>3.9609069690254515</v>
       </c>
       <c r="E42" t="n">
-        <v>1.2689666778329734E-4</v>
+        <v>1.1196225387959695E-4</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04225968541251565</v>
+        <v>0.03728616132858577</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9386563135323662</v>
+        <v>1.0505435659794529</v>
       </c>
     </row>
     <row r="43">
@@ -1191,22 +1197,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>1.062667402930746</v>
+        <v>1.0627092618076424</v>
       </c>
       <c r="C43" t="n">
         <v>0.0689324492047663</v>
       </c>
       <c r="D43" t="n">
-        <v>3.8847353479982027</v>
+        <v>3.922733879520459</v>
       </c>
       <c r="E43" t="n">
-        <v>1.4940218370546707E-4</v>
+        <v>1.2944298189334022E-4</v>
       </c>
       <c r="F43" t="n">
-        <v>0.048569938483677313</v>
+        <v>0.04208129701837303</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7965422800128525</v>
+        <v>0.9238464323632698</v>
       </c>
     </row>
     <row r="44">
@@ -1214,22 +1220,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9311043587892581</v>
+        <v>0.93078819607125</v>
       </c>
       <c r="C44" t="n">
         <v>0.059840129214738025</v>
       </c>
       <c r="D44" t="n">
-        <v>3.8730694326982036</v>
+        <v>3.908952623397004</v>
       </c>
       <c r="E44" t="n">
-        <v>1.5609487699313118E-4</v>
+        <v>1.3636926316346146E-4</v>
       </c>
       <c r="F44" t="n">
-        <v>0.049565568615446816</v>
+        <v>0.04330199812171867</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7584214520688333</v>
+        <v>0.8783505529892226</v>
       </c>
     </row>
     <row r="45">
@@ -1237,22 +1243,68 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>1.9612054397379846</v>
+        <v>1.9605451470117286</v>
       </c>
       <c r="C45" t="n">
         <v>0.2880835582897792</v>
       </c>
       <c r="D45" t="n">
-        <v>3.8658883145171328</v>
+        <v>3.8946759182979163</v>
       </c>
       <c r="E45" t="n">
-        <v>1.6035524772645647E-4</v>
+        <v>1.4391541448597497E-4</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0497611489194781</v>
+        <v>0.044659569758897774</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7350020977845455</v>
+        <v>0.8313562323432535</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4233082720694253</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.021859527443421685</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.882443157888967</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.5069535579034814E-4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.045530976408386936</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7912012057011113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.3475179014121785</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.07582408133150567</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.8777212298936057</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.533927724319466E-4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.045530976408386936</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7757286134140804</v>
       </c>
     </row>
   </sheetData>
@@ -1271,15 +1323,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_1.xlsx
+++ b/docs/LMER_Microglia_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>logFC</t>
   </si>
@@ -33,124 +33,109 @@
     <t>Rn7s1</t>
   </si>
   <si>
+    <t>AB124611</t>
+  </si>
+  <si>
+    <t>Hexb</t>
+  </si>
+  <si>
+    <t>Pola2</t>
+  </si>
+  <si>
+    <t>Gbp2</t>
+  </si>
+  <si>
+    <t>Ogfod2</t>
+  </si>
+  <si>
     <t>AY036118</t>
   </si>
   <si>
-    <t>Xist</t>
-  </si>
-  <si>
-    <t>Pola2</t>
+    <t>Lzic</t>
+  </si>
+  <si>
+    <t>Adgre5</t>
+  </si>
+  <si>
+    <t>Trdmt1</t>
+  </si>
+  <si>
+    <t>Psmd10</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Dck</t>
+  </si>
+  <si>
+    <t>Eif1b</t>
+  </si>
+  <si>
+    <t>Galt</t>
+  </si>
+  <si>
+    <t>Mndal</t>
+  </si>
+  <si>
+    <t>Sparc</t>
+  </si>
+  <si>
+    <t>Cers6</t>
+  </si>
+  <si>
+    <t>Mrps5</t>
+  </si>
+  <si>
+    <t>Lilrb4a</t>
+  </si>
+  <si>
+    <t>Zbtb41</t>
   </si>
   <si>
     <t>Rn7s2</t>
   </si>
   <si>
-    <t>AC099934.1</t>
+    <t>Mapkbp1</t>
+  </si>
+  <si>
+    <t>2810414N06Rik</t>
+  </si>
+  <si>
+    <t>Chchd10</t>
+  </si>
+  <si>
+    <t>Aplf</t>
+  </si>
+  <si>
+    <t>B4galt6</t>
+  </si>
+  <si>
+    <t>Cd9</t>
+  </si>
+  <si>
+    <t>Trmt112</t>
+  </si>
+  <si>
+    <t>Stt3a</t>
+  </si>
+  <si>
+    <t>Sh3pxd2b</t>
   </si>
   <si>
     <t>Mgmt</t>
   </si>
   <si>
-    <t>Tsix</t>
-  </si>
-  <si>
-    <t>Tbata</t>
-  </si>
-  <si>
-    <t>Tmem170</t>
-  </si>
-  <si>
-    <t>Gm26870</t>
-  </si>
-  <si>
-    <t>Zfp992</t>
-  </si>
-  <si>
-    <t>Gm10719</t>
-  </si>
-  <si>
-    <t>Gm15564</t>
-  </si>
-  <si>
-    <t>Gm10801</t>
-  </si>
-  <si>
-    <t>Gm10800</t>
-  </si>
-  <si>
-    <t>Gm10722</t>
-  </si>
-  <si>
-    <t>Cst7</t>
-  </si>
-  <si>
-    <t>Slc6a20b</t>
-  </si>
-  <si>
-    <t>Gm26822</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>p_value</t>
-  </si>
-  <si>
-    <t>term_size</t>
-  </si>
-  <si>
-    <t>query_size</t>
-  </si>
-  <si>
-    <t>intersection_size</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>term_id</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>term_name</t>
-  </si>
-  <si>
-    <t>effective_domain_size</t>
-  </si>
-  <si>
-    <t>source_order</t>
-  </si>
-  <si>
-    <t>parents</t>
+    <t>Cited4</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>query_1</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>TF:M00285_1</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>Factor: TCF11; motif: GTCATNNWNNNNN; match class: 1</t>
-  </si>
-  <si>
-    <t>TF:M00285</t>
+    <t>no significant enrichment identified</t>
   </si>
 </sst>
 </file>
@@ -224,19 +209,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5.170917123616344</v>
+        <v>4.839119337882206</v>
       </c>
       <c r="C2" t="n">
-        <v>15.706432646870558</v>
+        <v>9.839526389977173</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3461070562973834E-34</v>
+        <v>3.462729267667225E-18</v>
       </c>
       <c r="E2" t="n">
-        <v>3.203374574668447E-30</v>
+        <v>4.0247302278096155E-14</v>
       </c>
       <c r="F2" t="n">
-        <v>55.566035235210194</v>
+        <v>28.563654231474</v>
       </c>
     </row>
     <row r="3">
@@ -244,19 +229,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.746847091818761</v>
+        <v>2.6741608875448937</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.414430521568423</v>
+        <v>7.855500839422715</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9824811612042425E-14</v>
+        <v>5.291143542725768E-13</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3534398887541364E-10</v>
+        <v>3.0749480698550803E-9</v>
       </c>
       <c r="F3" t="n">
-        <v>19.58148764010317</v>
+        <v>18.028621639775924</v>
       </c>
     </row>
     <row r="4">
@@ -264,19 +249,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.479660644074467</v>
+        <v>-4.016182357688573</v>
       </c>
       <c r="C4" t="n">
-        <v>8.297534399238211</v>
+        <v>-6.212861878204055</v>
       </c>
       <c r="D4" t="n">
-        <v>3.959036824275581E-14</v>
+        <v>4.260185641838556E-9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8018896266219593E-10</v>
+        <v>1.337941931818281E-5</v>
       </c>
       <c r="F4" t="n">
-        <v>19.011368172452862</v>
+        <v>10.037860716750227</v>
       </c>
     </row>
     <row r="5">
@@ -284,19 +269,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.2124970303203684</v>
+        <v>-4.176549125556527</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.042160199121474</v>
+        <v>-6.197718937208526</v>
       </c>
       <c r="D5" t="n">
-        <v>5.1343873766471094E-11</v>
+        <v>4.604463328979716E-9</v>
       </c>
       <c r="E5" t="n">
-        <v>1.752623131018491E-7</v>
+        <v>1.337941931818281E-5</v>
       </c>
       <c r="F5" t="n">
-        <v>13.071233394579526</v>
+        <v>9.968783585203731</v>
       </c>
     </row>
     <row r="6">
@@ -304,19 +289,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>3.739392874822302</v>
+        <v>2.734838453629114</v>
       </c>
       <c r="C6" t="n">
-        <v>6.835307528763075</v>
+        <v>6.130576617380321</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5860541794757328E-10</v>
+        <v>6.4901987755955814E-9</v>
       </c>
       <c r="E6" t="n">
-        <v>4.331196753312331E-7</v>
+        <v>1.5087116073749489E-5</v>
       </c>
       <c r="F6" t="n">
-        <v>12.13210191333711</v>
+        <v>9.66368356656023</v>
       </c>
     </row>
     <row r="7">
@@ -324,19 +309,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.4350201740503579</v>
+        <v>2.767472783578249</v>
       </c>
       <c r="C7" t="n">
-        <v>6.407334559118536</v>
+        <v>5.560833055997157</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5464769908508798E-9</v>
+        <v>1.0919865458416746E-7</v>
       </c>
       <c r="E7" t="n">
-        <v>3.5192661388463186E-6</v>
+        <v>2.115359937052964E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>10.233318191967582</v>
+        <v>7.156726194799416</v>
       </c>
     </row>
     <row r="8">
@@ -344,19 +329,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2.3140926242191564</v>
+        <v>-7.305272984047191</v>
       </c>
       <c r="C8" t="n">
-        <v>5.923286324874536</v>
+        <v>-5.323529686115236</v>
       </c>
       <c r="D8" t="n">
-        <v>1.839059455567382E-8</v>
+        <v>3.364688682662919E-7</v>
       </c>
       <c r="E8" t="n">
-        <v>3.587216829473862E-5</v>
+        <v>5.586825222655871E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>8.166425196963942</v>
+        <v>6.158991274485049</v>
       </c>
     </row>
     <row r="9">
@@ -364,19 +349,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.028009852270498</v>
+        <v>2.337930253951937</v>
       </c>
       <c r="C9" t="n">
-        <v>5.845741971940056</v>
+        <v>5.225362770033374</v>
       </c>
       <c r="D9" t="n">
-        <v>2.705503447565999E-8</v>
+        <v>5.310411104989563E-7</v>
       </c>
       <c r="E9" t="n">
-        <v>4.617618009133269E-5</v>
+        <v>7.296043075589086E-4</v>
       </c>
       <c r="F9" t="n">
-        <v>7.844049110493586</v>
+        <v>5.754801884842725</v>
       </c>
     </row>
     <row r="10">
@@ -384,19 +369,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>1.9839743730921386</v>
+        <v>1.3400879436281885</v>
       </c>
       <c r="C10" t="n">
-        <v>4.946712285473132</v>
+        <v>5.211954661891493</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8767981380122062E-6</v>
+        <v>5.649521438553022E-7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0028473113084909623</v>
+        <v>7.296043075589086E-4</v>
       </c>
       <c r="F10" t="n">
-        <v>4.306443222296538</v>
+        <v>5.699994122016988</v>
       </c>
     </row>
     <row r="11">
@@ -404,19 +389,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2.014688986982502</v>
+        <v>1.4394894510877707</v>
       </c>
       <c r="C11" t="n">
-        <v>4.917041743326786</v>
+        <v>5.17155861604256</v>
       </c>
       <c r="D11" t="n">
-        <v>2.14167219523656E-6</v>
+        <v>6.803537937237856E-7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002924239215375999</v>
+        <v>7.907752144451559E-4</v>
       </c>
       <c r="F11" t="n">
-        <v>4.196485492060015</v>
+        <v>5.535453947241661</v>
       </c>
     </row>
     <row r="12">
@@ -424,19 +409,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.249669140972737</v>
+        <v>3.468098875571632</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.821218068520344</v>
+        <v>4.951051942340514</v>
       </c>
       <c r="D12" t="n">
-        <v>3.268394703983917E-6</v>
+        <v>1.8452757873805087E-6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004056969208017855</v>
+        <v>0.0019497854978839685</v>
       </c>
       <c r="F12" t="n">
-        <v>3.8445624275518764</v>
+        <v>4.653078190233868</v>
       </c>
     </row>
     <row r="13">
@@ -444,19 +429,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.7966328990717066</v>
+        <v>3.0675336626469925</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.603773663898175</v>
+        <v>4.828175552399153</v>
       </c>
       <c r="D13" t="n">
-        <v>8.351243414843832E-6</v>
+        <v>3.1772253823123474E-6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009502323132189806</v>
+        <v>0.003077407551551368</v>
       </c>
       <c r="F13" t="n">
-        <v>3.0645092389882453</v>
+        <v>4.1732642121397605</v>
       </c>
     </row>
     <row r="14">
@@ -464,19 +449,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.0414942695371967</v>
+        <v>2.403144126745273</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.5199536783031675</v>
+        <v>4.790839795950058</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1894040762243785E-5</v>
+        <v>3.7407442593017277E-6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.012492402505205896</v>
+        <v>0.0033445131173741524</v>
       </c>
       <c r="F14" t="n">
-        <v>2.770873651881308</v>
+        <v>4.029201949606459</v>
       </c>
     </row>
     <row r="15">
@@ -484,19 +469,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1.544776867695215</v>
+        <v>4.26090822977641</v>
       </c>
       <c r="C15" t="n">
-        <v>4.493095021215024</v>
+        <v>4.574679251345174</v>
       </c>
       <c r="D15" t="n">
-        <v>1.3308380695563602E-5</v>
+        <v>9.464018098510525E-6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.012979473572658958</v>
+        <v>0.007857163025641987</v>
       </c>
       <c r="F15" t="n">
-        <v>2.6776321105243213</v>
+        <v>3.211356080266442</v>
       </c>
     </row>
     <row r="16">
@@ -504,19 +489,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.335890123813644</v>
+        <v>2.8168269472471463</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.468120169764333</v>
+        <v>4.553198705713978</v>
       </c>
       <c r="D16" t="n">
-        <v>1.4767817250353697E-5</v>
+        <v>1.0361739481291076E-5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.013442651782421959</v>
+        <v>0.008028966532736413</v>
       </c>
       <c r="F16" t="n">
-        <v>2.591303224885781</v>
+        <v>3.1316219201654656</v>
       </c>
     </row>
     <row r="17">
@@ -524,19 +509,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.380819619425816</v>
+        <v>0.8665922060803849</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.257697012912067</v>
+        <v>4.521733226869345</v>
       </c>
       <c r="D17" t="n">
-        <v>3.4914351893333786E-5</v>
+        <v>1.1826386582901128E-5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02979503504697372</v>
+        <v>0.008591130703316237</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8784546247439664</v>
+        <v>3.015334728145377</v>
       </c>
     </row>
     <row r="18">
@@ -544,19 +529,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.146071521859085</v>
+        <v>-3.767028557676346</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.174138830941786</v>
+        <v>-4.490238025043783</v>
       </c>
       <c r="D18" t="n">
-        <v>4.873441047992874E-5</v>
+        <v>1.3491120143171485E-5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03877985595105314</v>
+        <v>0.0092239582014166</v>
       </c>
       <c r="F18" t="n">
-        <v>1.6027226563996875</v>
+        <v>2.899548202771517</v>
       </c>
     </row>
     <row r="19">
@@ -564,19 +549,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.417458340076193</v>
+        <v>2.071042991903448</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.16205037232894</v>
+        <v>4.42682566547893</v>
       </c>
       <c r="D19" t="n">
-        <v>5.11232903998064E-5</v>
+        <v>1.7553266347613682E-5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03877985595105314</v>
+        <v>0.011334534153239656</v>
       </c>
       <c r="F19" t="n">
-        <v>1.563183976322236</v>
+        <v>2.668291045627588</v>
       </c>
     </row>
     <row r="20">
@@ -584,19 +569,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>1.4675671769034153</v>
+        <v>2.6072954933125723</v>
       </c>
       <c r="C20" t="n">
-        <v>4.101426499966413</v>
+        <v>4.39631294640253</v>
       </c>
       <c r="D20" t="n">
-        <v>6.489243026682553E-5</v>
+        <v>1.990467386558728E-5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04597951463234753</v>
+        <v>0.012176422333669524</v>
       </c>
       <c r="F20" t="n">
-        <v>1.366250263325413</v>
+        <v>2.5579107076941066</v>
       </c>
     </row>
     <row r="21">
@@ -604,19 +589,279 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>1.5439391998345267</v>
+        <v>2.908340233961255</v>
       </c>
       <c r="C21" t="n">
-        <v>4.091921347134989</v>
+        <v>4.257561730214821</v>
       </c>
       <c r="D21" t="n">
-        <v>6.734951608663765E-5</v>
+        <v>3.498298475488844E-5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04597951463234753</v>
+        <v>0.020330361590303415</v>
       </c>
       <c r="F21" t="n">
-        <v>1.3355789080707003</v>
+        <v>2.063418307086212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.1024965890812883</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.188823692710745</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.603763912733444E-5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.025480737122714675</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.823026963437739</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.4075950890881748</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.175685626788959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.85008185032524E-5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02562386424833194</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.7774303888256249</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.389556582339913</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.1453272224882385</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.468396764864464E-5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.026553996621798238</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.6725017907871846</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.8470108244092842</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.144647945960474</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.483058753533147E-5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.026553996621798238</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.6701609086504794</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.8460486543645318</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.099177338341327</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.55473306093907E-5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.029350282304582885</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.5141545403975485</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.9636898237601434</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.098757867576636</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.565493761672159E-5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.029350282304582885</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.5127217281143164</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.4741972636768357</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.063740299262383</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.525796535451337E-5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03194867077345471</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.3935219753922405</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.297144524690007</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.049203344022481</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.962621895617571E-5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03194867077345471</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.3442779825832218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.686777302223424</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.048920307931749</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.971362405834866E-5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.03194867077345471</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.343320596714653</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.1577691333759965</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.016716500840222</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.027910264647668E-5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.034977133668666616</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.2347394381081536</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.4373010197840803</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.980031161439489</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0394032438238982E-4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.03897091581601667</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.1118967547703242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.3140926242191484</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.960512766315352</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.119897100215878E-4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04067676248690359</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0469086296960475</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7921418915615763</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.938943628358786</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.2157420883819035E-4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04281990997958444</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9753926854552963</v>
       </c>
     </row>
   </sheetData>
@@ -635,45 +880,6 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -683,45 +889,6 @@
       </c>
       <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.480162224118272E-4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="n">
-        <v>12925.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3523.0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_1.xlsx
+++ b/docs/LMER_Microglia_1.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>logFC</t>
+  </si>
+  <si>
+    <t>AveExpr</t>
   </si>
   <si>
     <t>t</t>
@@ -203,664 +206,766 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>4.839119337882206</v>
       </c>
       <c r="C2" t="n">
+        <v>2.251260611924739</v>
+      </c>
+      <c r="D2" t="n">
         <v>9.839526389977173</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3.462729267667225E-18</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.0247302278096155E-14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>28.563654231474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>2.6741608875448937</v>
       </c>
       <c r="C3" t="n">
+        <v>0.08884636852271034</v>
+      </c>
+      <c r="D3" t="n">
         <v>7.855500839422715</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>5.291143542725768E-13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>3.0749480698550803E-9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>18.028621639775924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>-4.016182357688573</v>
       </c>
       <c r="C4" t="n">
+        <v>10.45517829082317</v>
+      </c>
+      <c r="D4" t="n">
         <v>-6.212861878204055</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>4.260185641838556E-9</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.337941931818281E-5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>10.037860716750227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>-4.176549125556527</v>
       </c>
       <c r="C5" t="n">
+        <v>1.551467410917347</v>
+      </c>
+      <c r="D5" t="n">
         <v>-6.197718937208526</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4.604463328979716E-9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.337941931818281E-5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9.968783585203731</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>2.734838453629114</v>
       </c>
       <c r="C6" t="n">
+        <v>0.13050068733359074</v>
+      </c>
+      <c r="D6" t="n">
         <v>6.130576617380321</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>6.4901987755955814E-9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.5087116073749489E-5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>9.66368356656023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>2.767472783578249</v>
       </c>
       <c r="C7" t="n">
+        <v>0.18554244113826976</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.560833055997157</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.0919865458416746E-7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.115359937052964E-4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>7.156726194799416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>-7.305272984047191</v>
       </c>
       <c r="C8" t="n">
+        <v>4.063142434037722</v>
+      </c>
+      <c r="D8" t="n">
         <v>-5.323529686115236</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>3.364688682662919E-7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.586825222655871E-4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6.158991274485049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>2.337930253951937</v>
       </c>
       <c r="C9" t="n">
+        <v>0.16042308794151108</v>
+      </c>
+      <c r="D9" t="n">
         <v>5.225362770033374</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5.310411104989563E-7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>7.296043075589086E-4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.754801884842725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>1.3400879436281885</v>
       </c>
       <c r="C10" t="n">
+        <v>0.04085633974476276</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.211954661891493</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>5.649521438553022E-7</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>7.296043075589086E-4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>5.699994122016988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>1.4394894510877707</v>
       </c>
       <c r="C11" t="n">
+        <v>0.09435186432694766</v>
+      </c>
+      <c r="D11" t="n">
         <v>5.17155861604256</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>6.803537937237856E-7</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>7.907752144451559E-4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>5.535453947241661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>3.468098875571632</v>
       </c>
       <c r="C12" t="n">
+        <v>0.4110066616121732</v>
+      </c>
+      <c r="D12" t="n">
         <v>4.951051942340514</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.8452757873805087E-6</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.0019497854978839685</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.653078190233868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>3.0675336626469925</v>
       </c>
       <c r="C13" t="n">
+        <v>0.2633938588463256</v>
+      </c>
+      <c r="D13" t="n">
         <v>4.828175552399153</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>3.1772253823123474E-6</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.003077407551551368</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>4.1732642121397605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>2.403144126745273</v>
       </c>
       <c r="C14" t="n">
+        <v>0.20983406074980793</v>
+      </c>
+      <c r="D14" t="n">
         <v>4.790839795950058</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>3.7407442593017277E-6</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.0033445131173741524</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>4.029201949606459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>4.26090822977641</v>
       </c>
       <c r="C15" t="n">
+        <v>0.867677278109132</v>
+      </c>
+      <c r="D15" t="n">
         <v>4.574679251345174</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>9.464018098510525E-6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.007857163025641987</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.211356080266442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>2.8168269472471463</v>
       </c>
       <c r="C16" t="n">
+        <v>0.37728993453531307</v>
+      </c>
+      <c r="D16" t="n">
         <v>4.553198705713978</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1.0361739481291076E-5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.008028966532736413</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.1316219201654656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>0.8665922060803849</v>
       </c>
       <c r="C17" t="n">
+        <v>0.0454843391380323</v>
+      </c>
+      <c r="D17" t="n">
         <v>4.521733226869345</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1.1826386582901128E-5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.008591130703316237</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3.015334728145377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>-3.767028557676346</v>
       </c>
       <c r="C18" t="n">
+        <v>7.598080304675759</v>
+      </c>
+      <c r="D18" t="n">
         <v>-4.490238025043783</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.3491120143171485E-5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0092239582014166</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.899548202771517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>2.071042991903448</v>
       </c>
       <c r="C19" t="n">
+        <v>0.19280566718249564</v>
+      </c>
+      <c r="D19" t="n">
         <v>4.42682566547893</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1.7553266347613682E-5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.011334534153239656</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.668291045627588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>2.6072954933125723</v>
       </c>
       <c r="C20" t="n">
+        <v>0.3503086381252986</v>
+      </c>
+      <c r="D20" t="n">
         <v>4.39631294640253</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.990467386558728E-5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.012176422333669524</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.5579107076941066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>2.908340233961255</v>
       </c>
       <c r="C21" t="n">
+        <v>0.3322718873586403</v>
+      </c>
+      <c r="D21" t="n">
         <v>4.257561730214821</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3.498298475488844E-5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.020330361590303415</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.063418307086212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>1.1024965890812883</v>
       </c>
       <c r="C22" t="n">
+        <v>0.07613923793636006</v>
+      </c>
+      <c r="D22" t="n">
         <v>4.188823692710745</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>4.603763912733444E-5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.025480737122714675</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.823026963437739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>3.4075950890881748</v>
       </c>
       <c r="C23" t="n">
+        <v>1.6577017770589186</v>
+      </c>
+      <c r="D23" t="n">
         <v>4.175685626788959</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4.85008185032524E-5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.02562386424833194</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.7774303888256249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>2.389556582339913</v>
       </c>
       <c r="C24" t="n">
+        <v>0.25239803918758424</v>
+      </c>
+      <c r="D24" t="n">
         <v>4.1453272224882385</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>5.468396764864464E-5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.026553996621798238</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.6725017907871846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>1.8470108244092842</v>
       </c>
       <c r="C25" t="n">
+        <v>0.20601602635429003</v>
+      </c>
+      <c r="D25" t="n">
         <v>4.144647945960474</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>5.483058753533147E-5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.026553996621798238</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.6701609086504794</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>1.8460486543645318</v>
       </c>
       <c r="C26" t="n">
+        <v>0.16526313486914582</v>
+      </c>
+      <c r="D26" t="n">
         <v>4.099177338341327</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>6.55473306093907E-5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.029350282304582885</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.5141545403975485</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>1.9636898237601434</v>
       </c>
       <c r="C27" t="n">
+        <v>0.2060444458092608</v>
+      </c>
+      <c r="D27" t="n">
         <v>4.098757867576636</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>6.565493761672159E-5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.029350282304582885</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1.5127217281143164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>3.4741972636768357</v>
       </c>
       <c r="C28" t="n">
+        <v>0.7694511272447077</v>
+      </c>
+      <c r="D28" t="n">
         <v>4.063740299262383</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>7.525796535451337E-5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.03194867077345471</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1.3935219753922405</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>-5.297144524690007</v>
       </c>
       <c r="C29" t="n">
+        <v>6.3921025608257</v>
+      </c>
+      <c r="D29" t="n">
         <v>-4.049203344022481</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>7.962621895617571E-5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.03194867077345471</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>1.3442779825832218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>4.686777302223424</v>
       </c>
       <c r="C30" t="n">
+        <v>1.9945814944304767</v>
+      </c>
+      <c r="D30" t="n">
         <v>4.048920307931749</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>7.971362405834866E-5</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.03194867077345471</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>1.343320596714653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>5.1577691333759965</v>
       </c>
       <c r="C31" t="n">
+        <v>2.12464123256331</v>
+      </c>
+      <c r="D31" t="n">
         <v>4.016716500840222</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>9.027910264647668E-5</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.034977133668666616</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.2347394381081536</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>1.4373010197840803</v>
       </c>
       <c r="C32" t="n">
+        <v>0.10828709857018884</v>
+      </c>
+      <c r="D32" t="n">
         <v>3.980031161439489</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.0394032438238982E-4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.03897091581601667</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>1.1118967547703242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>2.3140926242191484</v>
       </c>
       <c r="C33" t="n">
+        <v>1.070479571697798</v>
+      </c>
+      <c r="D33" t="n">
         <v>3.960512766315352</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1.119897100215878E-4</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.04067676248690359</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>1.0469086296960475</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>0.7921418915615763</v>
       </c>
       <c r="C34" t="n">
+        <v>0.04166396350100452</v>
+      </c>
+      <c r="D34" t="n">
         <v>3.938943628358786</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>1.2157420883819035E-4</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.04281990997958444</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.9753926854552963</v>
       </c>
     </row>
@@ -880,15 +985,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_1.xlsx
+++ b/docs/LMER_Microglia_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>logFC</t>
   </si>
@@ -132,13 +132,79 @@
     <t>Cited4</t>
   </si>
   <si>
-    <t>x</t>
+    <t>query</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>term_size</t>
+  </si>
+  <si>
+    <t>query_size</t>
+  </si>
+  <si>
+    <t>intersection_size</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>term_id</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>term_name</t>
+  </si>
+  <si>
+    <t>effective_domain_size</t>
+  </si>
+  <si>
+    <t>source_order</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>evidence_codes</t>
+  </si>
+  <si>
+    <t>intersection</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>no significant enrichment identified</t>
+    <t>query_1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>KEGG:00600</t>
+  </si>
+  <si>
+    <t>KEGG</t>
+  </si>
+  <si>
+    <t>Sphingolipid metabolism</t>
+  </si>
+  <si>
+    <t>KEGG:00000</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>Hexb,Cers6,B4galt6</t>
   </si>
 </sst>
 </file>
@@ -721,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>2.389556582339913</v>
+        <v>2.3895565823399134</v>
       </c>
       <c r="C24" t="n">
         <v>0.25239803918758424</v>
@@ -987,13 +1053,103 @@
       <c r="B1" t="s">
         <v>39</v>
       </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.008772503383740134</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_1.xlsx
+++ b/docs/LMER_Microglia_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>logFC</t>
   </si>
@@ -33,178 +33,451 @@
     <t>B</t>
   </si>
   <si>
-    <t>Rn7s1</t>
-  </si>
-  <si>
-    <t>AB124611</t>
-  </si>
-  <si>
-    <t>Hexb</t>
-  </si>
-  <si>
-    <t>Pola2</t>
-  </si>
-  <si>
-    <t>Gbp2</t>
-  </si>
-  <si>
-    <t>Ogfod2</t>
+    <t>Gnaz</t>
+  </si>
+  <si>
+    <t>Dbpht2</t>
+  </si>
+  <si>
+    <t>Gm11225</t>
+  </si>
+  <si>
+    <t>Gm16157</t>
+  </si>
+  <si>
+    <t>Gm37144</t>
   </si>
   <si>
     <t>AY036118</t>
   </si>
   <si>
-    <t>Lzic</t>
-  </si>
-  <si>
-    <t>Adgre5</t>
-  </si>
-  <si>
-    <t>Trdmt1</t>
-  </si>
-  <si>
-    <t>Psmd10</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Dck</t>
-  </si>
-  <si>
-    <t>Eif1b</t>
-  </si>
-  <si>
-    <t>Galt</t>
-  </si>
-  <si>
-    <t>Mndal</t>
-  </si>
-  <si>
-    <t>Sparc</t>
-  </si>
-  <si>
-    <t>Cers6</t>
-  </si>
-  <si>
-    <t>Mrps5</t>
-  </si>
-  <si>
-    <t>Lilrb4a</t>
-  </si>
-  <si>
-    <t>Zbtb41</t>
-  </si>
-  <si>
-    <t>Rn7s2</t>
-  </si>
-  <si>
-    <t>Mapkbp1</t>
-  </si>
-  <si>
-    <t>2810414N06Rik</t>
-  </si>
-  <si>
-    <t>Chchd10</t>
-  </si>
-  <si>
-    <t>Aplf</t>
-  </si>
-  <si>
-    <t>B4galt6</t>
-  </si>
-  <si>
-    <t>Cd9</t>
-  </si>
-  <si>
-    <t>Trmt112</t>
-  </si>
-  <si>
-    <t>Stt3a</t>
-  </si>
-  <si>
-    <t>Sh3pxd2b</t>
-  </si>
-  <si>
-    <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Cited4</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>p_value</t>
-  </si>
-  <si>
-    <t>term_size</t>
-  </si>
-  <si>
-    <t>query_size</t>
-  </si>
-  <si>
-    <t>intersection_size</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>term_id</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>term_name</t>
-  </si>
-  <si>
-    <t>effective_domain_size</t>
-  </si>
-  <si>
-    <t>source_order</t>
-  </si>
-  <si>
-    <t>parents</t>
-  </si>
-  <si>
-    <t>evidence_codes</t>
-  </si>
-  <si>
-    <t>intersection</t>
+    <t>Prickle2</t>
+  </si>
+  <si>
+    <t>Mrpl23-ps1</t>
+  </si>
+  <si>
+    <t>Rps2-ps10</t>
+  </si>
+  <si>
+    <t>Gm12792</t>
+  </si>
+  <si>
+    <t>Gm42535</t>
+  </si>
+  <si>
+    <t>AC102431.2</t>
+  </si>
+  <si>
+    <t>Gm28320</t>
+  </si>
+  <si>
+    <t>Gm14667</t>
+  </si>
+  <si>
+    <t>AC153506.3</t>
+  </si>
+  <si>
+    <t>Klhl32</t>
+  </si>
+  <si>
+    <t>Gm42715</t>
+  </si>
+  <si>
+    <t>Dusp23</t>
+  </si>
+  <si>
+    <t>Gm36948</t>
+  </si>
+  <si>
+    <t>Gm26822</t>
+  </si>
+  <si>
+    <t>Prr15</t>
+  </si>
+  <si>
+    <t>Enkd1</t>
+  </si>
+  <si>
+    <t>Gm43652</t>
+  </si>
+  <si>
+    <t>CT009480.1</t>
+  </si>
+  <si>
+    <t>Dpm1</t>
+  </si>
+  <si>
+    <t>Mc1r</t>
+  </si>
+  <si>
+    <t>Spry2</t>
+  </si>
+  <si>
+    <t>Obox3</t>
+  </si>
+  <si>
+    <t>Gm42636</t>
+  </si>
+  <si>
+    <t>BC106179</t>
+  </si>
+  <si>
+    <t>Mir124-2hg</t>
+  </si>
+  <si>
+    <t>Cntn3</t>
+  </si>
+  <si>
+    <t>Gm23237</t>
+  </si>
+  <si>
+    <t>Gm22133</t>
+  </si>
+  <si>
+    <t>Olfr1178</t>
+  </si>
+  <si>
+    <t>Rimbp2</t>
+  </si>
+  <si>
+    <t>Tug1</t>
+  </si>
+  <si>
+    <t>Gm42899</t>
+  </si>
+  <si>
+    <t>Lockd</t>
+  </si>
+  <si>
+    <t>Gm11131</t>
+  </si>
+  <si>
+    <t>Tnr</t>
+  </si>
+  <si>
+    <t>Strn</t>
+  </si>
+  <si>
+    <t>Gm37589</t>
+  </si>
+  <si>
+    <t>Thg1l</t>
+  </si>
+  <si>
+    <t>Gm44228</t>
+  </si>
+  <si>
+    <t>Snrnp200</t>
+  </si>
+  <si>
+    <t>Rab10</t>
+  </si>
+  <si>
+    <t>Gm10461</t>
+  </si>
+  <si>
+    <t>Gclc</t>
+  </si>
+  <si>
+    <t>AC135637.1</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>Slfn5</t>
+  </si>
+  <si>
+    <t>Cd209g</t>
+  </si>
+  <si>
+    <t>AC162938.1</t>
+  </si>
+  <si>
+    <t>Fbxl18</t>
+  </si>
+  <si>
+    <t>Apoe</t>
+  </si>
+  <si>
+    <t>Celf2</t>
+  </si>
+  <si>
+    <t>Atrx</t>
+  </si>
+  <si>
+    <t>D430042O09Rik</t>
+  </si>
+  <si>
+    <t>Tstd3</t>
+  </si>
+  <si>
+    <t>Smad1</t>
+  </si>
+  <si>
+    <t>Srpk1</t>
+  </si>
+  <si>
+    <t>Pigq</t>
+  </si>
+  <si>
+    <t>Gm43123</t>
+  </si>
+  <si>
+    <t>Kdm5a</t>
+  </si>
+  <si>
+    <t>Gm15429</t>
+  </si>
+  <si>
+    <t>Gm4258</t>
+  </si>
+  <si>
+    <t>Chst2</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Cbx3</t>
+  </si>
+  <si>
+    <t>AC121793.2</t>
+  </si>
+  <si>
+    <t>Ddit4</t>
+  </si>
+  <si>
+    <t>Srsf10</t>
+  </si>
+  <si>
+    <t>AC154386.1</t>
+  </si>
+  <si>
+    <t>Parl</t>
+  </si>
+  <si>
+    <t>Eif2s3y</t>
+  </si>
+  <si>
+    <t>Sgk3</t>
+  </si>
+  <si>
+    <t>Alpk2</t>
+  </si>
+  <si>
+    <t>Olfr907</t>
+  </si>
+  <si>
+    <t>Acnat1</t>
+  </si>
+  <si>
+    <t>Kpna4</t>
+  </si>
+  <si>
+    <t>Galntl6</t>
+  </si>
+  <si>
+    <t>Fau</t>
+  </si>
+  <si>
+    <t>Gng2</t>
+  </si>
+  <si>
+    <t>Gm26377</t>
+  </si>
+  <si>
+    <t>Gt(ROSA)26Sor</t>
+  </si>
+  <si>
+    <t>Cdc42</t>
+  </si>
+  <si>
+    <t>Gm29773</t>
+  </si>
+  <si>
+    <t>Itpripl1</t>
+  </si>
+  <si>
+    <t>Mid1</t>
+  </si>
+  <si>
+    <t>Gm37396</t>
+  </si>
+  <si>
+    <t>March6</t>
+  </si>
+  <si>
+    <t>Mycbp2</t>
+  </si>
+  <si>
+    <t>Gm37357</t>
+  </si>
+  <si>
+    <t>Hlf</t>
+  </si>
+  <si>
+    <t>Gfod2</t>
+  </si>
+  <si>
+    <t>Kat6a</t>
+  </si>
+  <si>
+    <t>Ring1</t>
+  </si>
+  <si>
+    <t>Azin1</t>
+  </si>
+  <si>
+    <t>Slc6a20b</t>
+  </si>
+  <si>
+    <t>AC153506.1</t>
+  </si>
+  <si>
+    <t>0610009B22Rik</t>
+  </si>
+  <si>
+    <t>Phtf1os</t>
+  </si>
+  <si>
+    <t>5730507A11Rik</t>
+  </si>
+  <si>
+    <t>4931414P19Rik</t>
+  </si>
+  <si>
+    <t>Zfp266</t>
+  </si>
+  <si>
+    <t>Macf1</t>
+  </si>
+  <si>
+    <t>Gm14324</t>
+  </si>
+  <si>
+    <t>Slc2a5</t>
+  </si>
+  <si>
+    <t>Churc1</t>
+  </si>
+  <si>
+    <t>Gm20604</t>
+  </si>
+  <si>
+    <t>Bpnt1</t>
+  </si>
+  <si>
+    <t>Ube3c</t>
+  </si>
+  <si>
+    <t>Cd300a</t>
+  </si>
+  <si>
+    <t>Myo18b</t>
+  </si>
+  <si>
+    <t>Pirb</t>
+  </si>
+  <si>
+    <t>Plekhg3</t>
+  </si>
+  <si>
+    <t>Nrip1</t>
+  </si>
+  <si>
+    <t>Cpeb1</t>
+  </si>
+  <si>
+    <t>Amfr</t>
+  </si>
+  <si>
+    <t>Rasl2-9</t>
+  </si>
+  <si>
+    <t>Gm37310</t>
+  </si>
+  <si>
+    <t>Chd1</t>
+  </si>
+  <si>
+    <t>H2-D1</t>
+  </si>
+  <si>
+    <t>Rsad2</t>
+  </si>
+  <si>
+    <t>Ddx39</t>
+  </si>
+  <si>
+    <t>Plekha2</t>
+  </si>
+  <si>
+    <t>Pgpep1</t>
+  </si>
+  <si>
+    <t>Zfhx3</t>
+  </si>
+  <si>
+    <t>Btaf1</t>
+  </si>
+  <si>
+    <t>Mcc</t>
+  </si>
+  <si>
+    <t>Fam102b</t>
+  </si>
+  <si>
+    <t>Dnm1l</t>
+  </si>
+  <si>
+    <t>H3f3a</t>
+  </si>
+  <si>
+    <t>Trim25</t>
+  </si>
+  <si>
+    <t>Dhx36</t>
+  </si>
+  <si>
+    <t>Nr3c1</t>
+  </si>
+  <si>
+    <t>Ppm1l</t>
+  </si>
+  <si>
+    <t>Skil</t>
+  </si>
+  <si>
+    <t>Cox7a2</t>
+  </si>
+  <si>
+    <t>Reep3</t>
+  </si>
+  <si>
+    <t>Appl2</t>
+  </si>
+  <si>
+    <t>Brpf1</t>
+  </si>
+  <si>
+    <t>Rccd1</t>
+  </si>
+  <si>
+    <t>Rab11fip1</t>
+  </si>
+  <si>
+    <t>Hpgd</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>query_1</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>KEGG:00600</t>
-  </si>
-  <si>
-    <t>KEGG</t>
-  </si>
-  <si>
-    <t>Sphingolipid metabolism</t>
-  </si>
-  <si>
-    <t>KEGG:00000</t>
-  </si>
-  <si>
-    <t>KEGG,KEGG,KEGG</t>
-  </si>
-  <si>
-    <t>Hexb,Cers6,B4galt6</t>
+    <t>no significant enrichment identified</t>
   </si>
 </sst>
 </file>
@@ -281,22 +554,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>4.839119337882206</v>
+        <v>4.8152966534295425</v>
       </c>
       <c r="C2" t="n">
-        <v>2.251260611924739</v>
+        <v>1.596297185424169</v>
       </c>
       <c r="D2" t="n">
-        <v>9.839526389977173</v>
+        <v>19.263220199513135</v>
       </c>
       <c r="E2" t="n">
-        <v>3.462729267667225E-18</v>
+        <v>4.352173998834799E-61</v>
       </c>
       <c r="F2" t="n">
-        <v>4.0247302278096155E-14</v>
+        <v>5.542058370116234E-57</v>
       </c>
       <c r="G2" t="n">
-        <v>28.563654231474</v>
+        <v>124.3153764584161</v>
       </c>
     </row>
     <row r="3">
@@ -304,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.6741608875448937</v>
+        <v>2.8284561523061114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08884636852271034</v>
+        <v>0.8410148106045661</v>
       </c>
       <c r="D3" t="n">
-        <v>7.855500839422715</v>
+        <v>15.135463062972404</v>
       </c>
       <c r="E3" t="n">
-        <v>5.291143542725768E-13</v>
+        <v>2.680058125202398E-42</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0749480698550803E-9</v>
+        <v>1.2656869855044805E-38</v>
       </c>
       <c r="G3" t="n">
-        <v>18.028621639775924</v>
+        <v>83.2860531427222</v>
       </c>
     </row>
     <row r="4">
@@ -327,22 +600,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.016182357688573</v>
+        <v>3.425202371464589</v>
       </c>
       <c r="C4" t="n">
-        <v>10.45517829082317</v>
+        <v>1.2292126866413837</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.212861878204055</v>
+        <v>15.12495242001644</v>
       </c>
       <c r="E4" t="n">
-        <v>4.260185641838556E-9</v>
+        <v>2.981828927684499E-42</v>
       </c>
       <c r="F4" t="n">
-        <v>1.337941931818281E-5</v>
+        <v>1.2656869855044805E-38</v>
       </c>
       <c r="G4" t="n">
-        <v>10.037860716750227</v>
+        <v>83.1844946407492</v>
       </c>
     </row>
     <row r="5">
@@ -350,22 +623,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.176549125556527</v>
+        <v>2.565077707199489</v>
       </c>
       <c r="C5" t="n">
-        <v>1.551467410917347</v>
+        <v>0.7882469386417744</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.197718937208526</v>
+        <v>14.22422899935445</v>
       </c>
       <c r="E5" t="n">
-        <v>4.604463328979716E-9</v>
+        <v>2.5333293391436955E-38</v>
       </c>
       <c r="F5" t="n">
-        <v>1.337941931818281E-5</v>
+        <v>7.160083688130992E-35</v>
       </c>
       <c r="G5" t="n">
-        <v>9.968783585203731</v>
+        <v>74.56755879407581</v>
       </c>
     </row>
     <row r="6">
@@ -373,22 +646,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>2.734838453629114</v>
+        <v>4.309325604098726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.13050068733359074</v>
+        <v>2.1874661650788436</v>
       </c>
       <c r="D6" t="n">
-        <v>6.130576617380321</v>
+        <v>14.213741193274766</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4901987755955814E-9</v>
+        <v>2.811403992512561E-38</v>
       </c>
       <c r="F6" t="n">
-        <v>1.5087116073749489E-5</v>
+        <v>7.160083688130992E-35</v>
       </c>
       <c r="G6" t="n">
-        <v>9.66368356656023</v>
+        <v>74.46830442456263</v>
       </c>
     </row>
     <row r="7">
@@ -396,22 +669,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>2.767472783578249</v>
+        <v>-8.590799979705524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18554244113826976</v>
+        <v>5.722248990890525</v>
       </c>
       <c r="D7" t="n">
-        <v>5.560833055997157</v>
+        <v>-13.344612629454232</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0919865458416746E-7</v>
+        <v>1.4145058574646727E-34</v>
       </c>
       <c r="F7" t="n">
-        <v>2.115359937052964E-4</v>
+        <v>3.0020529314925237E-31</v>
       </c>
       <c r="G7" t="n">
-        <v>7.156726194799416</v>
+        <v>66.34140126578372</v>
       </c>
     </row>
     <row r="8">
@@ -419,22 +692,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.305272984047191</v>
+        <v>2.993247602526829</v>
       </c>
       <c r="C8" t="n">
-        <v>4.063142434037722</v>
+        <v>0.8219453529505155</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.323529686115236</v>
+        <v>13.29175972817998</v>
       </c>
       <c r="E8" t="n">
-        <v>3.364688682662919E-7</v>
+        <v>2.3580639225522753E-34</v>
       </c>
       <c r="F8" t="n">
-        <v>5.586825222655871E-4</v>
+        <v>4.289655141397239E-31</v>
       </c>
       <c r="G8" t="n">
-        <v>6.158991274485049</v>
+        <v>65.8538779111182</v>
       </c>
     </row>
     <row r="9">
@@ -442,22 +715,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>2.337930253951937</v>
+        <v>5.871965357944097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16042308794151108</v>
+        <v>2.961862376489247</v>
       </c>
       <c r="D9" t="n">
-        <v>5.225362770033374</v>
+        <v>11.275032427204039</v>
       </c>
       <c r="E9" t="n">
-        <v>5.310411104989563E-7</v>
+        <v>3.3179412915767576E-26</v>
       </c>
       <c r="F9" t="n">
-        <v>7.296043075589086E-4</v>
+        <v>5.2813330508673037E-23</v>
       </c>
       <c r="G9" t="n">
-        <v>5.754801884842725</v>
+        <v>47.94236826199418</v>
       </c>
     </row>
     <row r="10">
@@ -465,22 +738,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>1.3400879436281885</v>
+        <v>3.1510299822486205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04085633974476276</v>
+        <v>1.3361719182886498</v>
       </c>
       <c r="D10" t="n">
-        <v>5.211954661891493</v>
+        <v>10.476136974681273</v>
       </c>
       <c r="E10" t="n">
-        <v>5.649521438553022E-7</v>
+        <v>3.529264475492642E-23</v>
       </c>
       <c r="F10" t="n">
-        <v>7.296043075589086E-4</v>
+        <v>4.993517092324811E-20</v>
       </c>
       <c r="G10" t="n">
-        <v>5.699994122016988</v>
+        <v>41.285541707982176</v>
       </c>
     </row>
     <row r="11">
@@ -488,22 +761,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>1.4394894510877707</v>
+        <v>2.350752090677484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09435186432694766</v>
+        <v>0.9094983061291939</v>
       </c>
       <c r="D11" t="n">
-        <v>5.17155861604256</v>
+        <v>9.98414819115546</v>
       </c>
       <c r="E11" t="n">
-        <v>6.803537937237856E-7</v>
+        <v>2.2152548064371495E-21</v>
       </c>
       <c r="F11" t="n">
-        <v>7.907752144451559E-4</v>
+        <v>2.8209054705170665E-18</v>
       </c>
       <c r="G11" t="n">
-        <v>5.535453947241661</v>
+        <v>37.33228910715765</v>
       </c>
     </row>
     <row r="12">
@@ -511,22 +784,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>3.468098875571632</v>
+        <v>2.976909133717257</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4110066616121732</v>
+        <v>1.7865696046088875</v>
       </c>
       <c r="D12" t="n">
-        <v>4.951051942340514</v>
+        <v>9.960443160668133</v>
       </c>
       <c r="E12" t="n">
-        <v>1.8452757873805087E-6</v>
+        <v>2.6958244941578232E-21</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0019497854978839685</v>
+        <v>3.1207844644187022E-18</v>
       </c>
       <c r="G12" t="n">
-        <v>4.653078190233868</v>
+        <v>37.14480600318262</v>
       </c>
     </row>
     <row r="13">
@@ -534,22 +807,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0675336626469925</v>
+        <v>1.7768543684720082</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2633938588463256</v>
+        <v>0.5317501962695348</v>
       </c>
       <c r="D13" t="n">
-        <v>4.828175552399153</v>
+        <v>9.477288831486693</v>
       </c>
       <c r="E13" t="n">
-        <v>3.1772253823123474E-6</v>
+        <v>1.3816656293040544E-19</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003077407551551368</v>
+        <v>1.4661775102964858E-16</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1732642121397605</v>
+        <v>33.386224533832454</v>
       </c>
     </row>
     <row r="14">
@@ -557,22 +830,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>2.403144126745273</v>
+        <v>1.3672924536945945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20983406074980793</v>
+        <v>0.4065787485042653</v>
       </c>
       <c r="D14" t="n">
-        <v>4.790839795950058</v>
+        <v>9.16002089629862</v>
       </c>
       <c r="E14" t="n">
-        <v>3.7407442593017277E-6</v>
+        <v>1.7094421029960957E-18</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0033445131173741524</v>
+        <v>1.6744642876578678E-15</v>
       </c>
       <c r="G14" t="n">
-        <v>4.029201949606459</v>
+        <v>30.985474616047384</v>
       </c>
     </row>
     <row r="15">
@@ -580,22 +853,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>4.26090822977641</v>
+        <v>1.8011099245858644</v>
       </c>
       <c r="C15" t="n">
-        <v>0.867677278109132</v>
+        <v>0.6056169506173961</v>
       </c>
       <c r="D15" t="n">
-        <v>4.574679251345174</v>
+        <v>9.043085226492687</v>
       </c>
       <c r="E15" t="n">
-        <v>9.464018098510525E-6</v>
+        <v>4.258258199007036E-18</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007857163025641987</v>
+        <v>3.873189993296828E-15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.211356080266442</v>
+        <v>30.114621606002075</v>
       </c>
     </row>
     <row r="16">
@@ -603,22 +876,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>2.8168269472471463</v>
+        <v>2.8327212399936395</v>
       </c>
       <c r="C16" t="n">
-        <v>0.37728993453531307</v>
+        <v>1.6619191202863342</v>
       </c>
       <c r="D16" t="n">
-        <v>4.553198705713978</v>
+        <v>8.971001396808697</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0361739481291076E-5</v>
+        <v>7.444925024594871E-18</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008028966532736413</v>
+        <v>6.320245017546072E-15</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1316219201654656</v>
+        <v>29.58162602228755</v>
       </c>
     </row>
     <row r="17">
@@ -626,22 +899,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8665922060803849</v>
+        <v>1.7477666627097201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0454843391380323</v>
+        <v>0.5746845345489618</v>
       </c>
       <c r="D17" t="n">
-        <v>4.521733226869345</v>
+        <v>8.71257276515571</v>
       </c>
       <c r="E17" t="n">
-        <v>1.1826386582901128E-5</v>
+        <v>5.379977937152654E-17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008591130703316237</v>
+        <v>4.281789940731368E-14</v>
       </c>
       <c r="G17" t="n">
-        <v>3.015334728145377</v>
+        <v>27.695238340280433</v>
       </c>
     </row>
     <row r="18">
@@ -649,22 +922,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.767028557676346</v>
+        <v>2.903146999073267</v>
       </c>
       <c r="C18" t="n">
-        <v>7.598080304675759</v>
+        <v>1.0172850125332256</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.490238025043783</v>
+        <v>8.624049189422132</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3491120143171485E-5</v>
+        <v>1.0495638777564377E-16</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0092239582014166</v>
+        <v>7.861850834912045E-14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.899548202771517</v>
+        <v>27.05800624638284</v>
       </c>
     </row>
     <row r="19">
@@ -672,22 +945,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>2.071042991903448</v>
+        <v>2.294066269231169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19280566718249564</v>
+        <v>0.8036587830145135</v>
       </c>
       <c r="D19" t="n">
-        <v>4.42682566547893</v>
+        <v>8.466131867100497</v>
       </c>
       <c r="E19" t="n">
-        <v>1.7553266347613682E-5</v>
+        <v>3.416632150402081E-16</v>
       </c>
       <c r="F19" t="n">
-        <v>0.011334534153239656</v>
+        <v>2.417077433512228E-13</v>
       </c>
       <c r="G19" t="n">
-        <v>2.668291045627588</v>
+        <v>25.932799370255047</v>
       </c>
     </row>
     <row r="20">
@@ -695,22 +968,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>2.6072954933125723</v>
+        <v>1.462619398813518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3503086381252986</v>
+        <v>0.48438444845665635</v>
       </c>
       <c r="D20" t="n">
-        <v>4.39631294640253</v>
+        <v>8.443430310057657</v>
       </c>
       <c r="E20" t="n">
-        <v>1.990467386558728E-5</v>
+        <v>4.0433214436481996E-16</v>
       </c>
       <c r="F20" t="n">
-        <v>0.012176422333669524</v>
+        <v>2.7098765928113777E-13</v>
       </c>
       <c r="G20" t="n">
-        <v>2.5579107076941066</v>
+        <v>25.77227379793981</v>
       </c>
     </row>
     <row r="21">
@@ -718,22 +991,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>2.908340233961255</v>
+        <v>2.8427817669087028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3322718873586403</v>
+        <v>2.2988193148861114</v>
       </c>
       <c r="D21" t="n">
-        <v>4.257561730214821</v>
+        <v>8.42609440939779</v>
       </c>
       <c r="E21" t="n">
-        <v>3.498298475488844E-5</v>
+        <v>4.5972470337253E-16</v>
       </c>
       <c r="F21" t="n">
-        <v>0.020330361590303415</v>
+        <v>2.9270671863728987E-13</v>
       </c>
       <c r="G21" t="n">
-        <v>2.063418307086212</v>
+        <v>25.6498991569298</v>
       </c>
     </row>
     <row r="22">
@@ -741,22 +1014,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>1.1024965890812883</v>
+        <v>1.9037032557543712</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07613923793636006</v>
+        <v>0.7884743186361095</v>
       </c>
       <c r="D22" t="n">
-        <v>4.188823692710745</v>
+        <v>8.267170313409046</v>
       </c>
       <c r="E22" t="n">
-        <v>4.603763912733444E-5</v>
+        <v>1.478668449667057E-15</v>
       </c>
       <c r="F22" t="n">
-        <v>0.025480737122714675</v>
+        <v>8.966363827647765E-13</v>
       </c>
       <c r="G22" t="n">
-        <v>1.823026963437739</v>
+        <v>24.536575162815026</v>
       </c>
     </row>
     <row r="23">
@@ -764,22 +1037,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>3.4075950890881748</v>
+        <v>1.4849806430443857</v>
       </c>
       <c r="C23" t="n">
-        <v>1.6577017770589186</v>
+        <v>0.48717780149045464</v>
       </c>
       <c r="D23" t="n">
-        <v>4.175685626788959</v>
+        <v>7.830980698156445</v>
       </c>
       <c r="E23" t="n">
-        <v>4.85008185032524E-5</v>
+        <v>3.361465209739767E-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02562386424833194</v>
+        <v>1.9456771809466453E-11</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7774303888256249</v>
+        <v>21.56169981524546</v>
       </c>
     </row>
     <row r="24">
@@ -787,22 +1060,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>2.3895565823399134</v>
+        <v>1.840613363497254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25239803918758424</v>
+        <v>0.9906833833068994</v>
       </c>
       <c r="D24" t="n">
-        <v>4.1453272224882385</v>
+        <v>7.730628995716506</v>
       </c>
       <c r="E24" t="n">
-        <v>5.468396764864464E-5</v>
+        <v>6.77684811070773E-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.026553996621798238</v>
+        <v>3.7520166887718364E-11</v>
       </c>
       <c r="G24" t="n">
-        <v>1.6725017907871846</v>
+        <v>20.89446690217325</v>
       </c>
     </row>
     <row r="25">
@@ -810,22 +1083,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>1.8470108244092842</v>
+        <v>1.891690099146635</v>
       </c>
       <c r="C25" t="n">
-        <v>0.20601602635429003</v>
+        <v>1.134170834400615</v>
       </c>
       <c r="D25" t="n">
-        <v>4.144647945960474</v>
+        <v>7.691474277692218</v>
       </c>
       <c r="E25" t="n">
-        <v>5.483058753533147E-5</v>
+        <v>8.892998693443502E-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.026553996621798238</v>
+        <v>4.718476890096232E-11</v>
       </c>
       <c r="G25" t="n">
-        <v>1.6701609086504794</v>
+        <v>20.635907426938303</v>
       </c>
     </row>
     <row r="26">
@@ -833,22 +1106,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>1.8460486543645318</v>
+        <v>3.5527597711537036</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16526313486914582</v>
+        <v>2.2945480177759863</v>
       </c>
       <c r="D26" t="n">
-        <v>4.099177338341327</v>
+        <v>7.379816687155997</v>
       </c>
       <c r="E26" t="n">
-        <v>6.55473306093907E-5</v>
+        <v>7.455270303865818E-13</v>
       </c>
       <c r="F26" t="n">
-        <v>0.029350282304582885</v>
+        <v>3.7431032753182483E-10</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5141545403975485</v>
+        <v>18.614004372545246</v>
       </c>
     </row>
     <row r="27">
@@ -856,22 +1129,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>1.9636898237601434</v>
+        <v>1.343151607691926</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2060444458092608</v>
+        <v>0.38492746664085203</v>
       </c>
       <c r="D27" t="n">
-        <v>4.098757867576636</v>
+        <v>7.3761212824455225</v>
       </c>
       <c r="E27" t="n">
-        <v>6.565493761672159E-5</v>
+        <v>7.64258561004197E-13</v>
       </c>
       <c r="F27" t="n">
-        <v>0.029350282304582885</v>
+        <v>3.7431032753182483E-10</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5127217281143164</v>
+        <v>18.59041990882657</v>
       </c>
     </row>
     <row r="28">
@@ -879,22 +1152,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>3.4741972636768357</v>
+        <v>1.1648927031816494</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7694511272447077</v>
+        <v>0.36387755898021323</v>
       </c>
       <c r="D28" t="n">
-        <v>4.063740299262383</v>
+        <v>7.212861116531526</v>
       </c>
       <c r="E28" t="n">
-        <v>7.525796535451337E-5</v>
+        <v>2.266046963365658E-12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03194867077345471</v>
+        <v>1.0687348900554922E-9</v>
       </c>
       <c r="G28" t="n">
-        <v>1.3935219753922405</v>
+        <v>17.55773652643979</v>
       </c>
     </row>
     <row r="29">
@@ -902,22 +1175,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.297144524690007</v>
+        <v>1.4412019305103816</v>
       </c>
       <c r="C29" t="n">
-        <v>6.3921025608257</v>
+        <v>0.5809385497420214</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.049203344022481</v>
+        <v>7.047549159412598</v>
       </c>
       <c r="E29" t="n">
-        <v>7.962621895617571E-5</v>
+        <v>6.683507896353971E-12</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03194867077345471</v>
+        <v>3.0395639125775523E-9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3442779825832218</v>
+        <v>16.5307259576142</v>
       </c>
     </row>
     <row r="30">
@@ -925,22 +1198,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>4.686777302223424</v>
+        <v>2.0625534104658234</v>
       </c>
       <c r="C30" t="n">
-        <v>1.9945814944304767</v>
+        <v>0.9105864869614199</v>
       </c>
       <c r="D30" t="n">
-        <v>4.048920307931749</v>
+        <v>6.819133564641549</v>
       </c>
       <c r="E30" t="n">
-        <v>7.971362405834866E-5</v>
+        <v>2.8854328990251015E-11</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03194867077345471</v>
+        <v>1.2670035357305395E-8</v>
       </c>
       <c r="G30" t="n">
-        <v>1.343320596714653</v>
+        <v>15.143106752459234</v>
       </c>
     </row>
     <row r="31">
@@ -948,22 +1221,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>5.1577691333759965</v>
+        <v>1.643859264617859</v>
       </c>
       <c r="C31" t="n">
-        <v>2.12464123256331</v>
+        <v>0.7835227866302998</v>
       </c>
       <c r="D31" t="n">
-        <v>4.016716500840222</v>
+        <v>6.724035815019855</v>
       </c>
       <c r="E31" t="n">
-        <v>9.027910264647668E-5</v>
+        <v>5.2465211408084517E-11</v>
       </c>
       <c r="F31" t="n">
-        <v>0.034977133668666616</v>
+        <v>2.2269733402351606E-8</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2347394381081536</v>
+        <v>14.576303402364323</v>
       </c>
     </row>
     <row r="32">
@@ -971,22 +1244,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>1.4373010197840803</v>
+        <v>1.4227279184428239</v>
       </c>
       <c r="C32" t="n">
-        <v>0.10828709857018884</v>
+        <v>0.523032094919026</v>
       </c>
       <c r="D32" t="n">
-        <v>3.980031161439489</v>
+        <v>6.661095952222941</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0394032438238982E-4</v>
+        <v>7.765295863191908E-11</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03897091581601667</v>
+        <v>3.189783145867282E-8</v>
       </c>
       <c r="G32" t="n">
-        <v>1.1118967547703242</v>
+        <v>14.204737675649993</v>
       </c>
     </row>
     <row r="33">
@@ -994,22 +1267,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>2.3140926242191484</v>
+        <v>1.38527228848631</v>
       </c>
       <c r="C33" t="n">
-        <v>1.070479571697798</v>
+        <v>0.5593704324479344</v>
       </c>
       <c r="D33" t="n">
-        <v>3.960512766315352</v>
+        <v>6.544762577969667</v>
       </c>
       <c r="E33" t="n">
-        <v>1.119897100215878E-4</v>
+        <v>1.5907103175969638E-10</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04067676248690359</v>
+        <v>6.330032870087417E-8</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0469086296960475</v>
+        <v>13.52550838813052</v>
       </c>
     </row>
     <row r="34">
@@ -1017,22 +1290,2621 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7921418915615763</v>
+        <v>1.400804058996105</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04166396350100452</v>
+        <v>0.7440361913246875</v>
       </c>
       <c r="D34" t="n">
-        <v>3.938943628358786</v>
+        <v>6.371000580761947</v>
       </c>
       <c r="E34" t="n">
-        <v>1.2157420883819035E-4</v>
+        <v>4.5570674555769044E-10</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04281990997958444</v>
+        <v>1.758475666039888E-7</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9753926854552963</v>
+        <v>12.529398704306077</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-2.8602354792366183</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.5830132921296727</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-6.294217912970251</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.203700303986762E-10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.697997637381395E-7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.096339419563327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.605915394257524</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7857008141285446</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.956606113819088</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.1169963028316875E-9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.8617094548645344E-6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.244716382050848</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5010805591254912</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7509616067698551</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.8618662530021215</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8.732581876245363E-9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.0889082670030127E-6</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.740710988615708</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.949155391107032</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.710395135783752</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.384618851957008</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.1592160767662697E-7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.9895831139301836E-5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.30821245049774</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.875169311940983</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3695576607522946</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.289828875883969</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.8962102810660627E-7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.354300452393485E-5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.846563347726171</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5822780261926057</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.1278554364804512</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.23586162303252</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.5013065283755355E-7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.167086495470273E-5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6.586960141595423</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.6515804627848727</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0432007411006567</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.1074492123844895</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.789221700401146E-7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.5246487283227049E-4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.978730279421162</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.1887197359140071</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3968562560002581</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.9537746221048415</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.023802837810633E-6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.1797817894342926E-4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.268533414380174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.2825973409241027</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.2775283772093862</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.905890836362146</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.2921554208194287E-6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.9176921735034777E-4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.051208981541931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.4893772148992983</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.34296124674903133</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.819483527627339</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.957404255085143E-6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.796647856803305E-4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.663842449015567</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.6303797997058915</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.9305785042743824</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.809224569632218</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.0555013274326186E-6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.948807705347039E-4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.6182627448803295</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-1.4956674237606224</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.3563902544044883</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.607329522544213</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.2865446242588975E-6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0014944823759861865</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.739146476056824</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.6167471726874694</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.4990214911066073</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.600834460596107</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.446607231541889E-6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0014944823759861865</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.711432682466734</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.8458584901510044</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.4633336280998859</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.598075637754623</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.5159943200369695E-6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0014944823759861865</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.6996718121098056</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.2094653090771192</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.6473884523800081</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.59134317576708</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.688904329747869E-6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0015092189111460285</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.67099823783464</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.250832232969766</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7404685734283232</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.551913048897347</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.810945982416024E-6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0017700119620425645</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.5038331495696013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7756564451645053</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.21829508031226602</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.519387463117681</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.893550558199144E-6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.002010329456162158</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.366929028490892</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.680080718323009</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.816814184346322</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.4887529704845</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.062778420317004E-6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0022628513804767987</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.238804054857713</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.812536213200135</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.4331270925079758</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.4627678722647754</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.0183063431336781E-5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0024936755718200495</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.1307487049134792</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7378578538936552</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09146156801837554</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.456731151953722</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.046170290494292E-5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0025135721658781727</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.105727961138765</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.1059567600799478</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7579476828770174</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.4085508920398615</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.2962767990887726E-5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0030568127332585983</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.907143677949186</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.836444057931156</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.187953153853044</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.394203955494415</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.3811976245085448E-5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.003197849190998511</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.8483921278421107</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-4.997176126835914</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.3941111068808345</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.350091344785484</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.6769420170286715E-5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.003813246365150554</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.6688491858685133</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.245008641460575</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.625276543270899</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.344678764540579</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.717148970872526E-5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0038361710517703066</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.646933984500807</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.891511166137243</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.1670833455188507</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.330850695447746</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.824097483678542E-5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.004004837475372855</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.5910588433517923</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.7567970587345882</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.0738359432760753</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.302972251146269</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.059383717831694E-5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.004444778349638778</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.4789082837229497</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0970444384779832</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.36122307571563983</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.280458580239691</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.270280431752548E-5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.004818291836322824</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.388825872161771</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.169767952902743</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8105137375666828</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.269652722649734</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.378682398736289E-5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.004965596994345558</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.345743713155043</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.150610009753596</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.6937617409235524</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.25884920248706</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.4919895396898885E-5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.005118224967485652</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.3027711884514908</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.190616588544796</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9042779601405385</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.248800188299684</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.601992843018539E-5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.005223024809833493</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.2628899128596007</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.1215288535327377</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6630495279893189</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.246745546481112</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.6250478076750714E-5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.005223024809833493</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.254746403333968</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.4348493520318284</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.7261802553914478</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.1866839080464775</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.391906045169356E-5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.006645004858336398</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.0183008910900107</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9775623397598115</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.20393262349478616</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.142724015606308</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.083846579716745E-5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.007879348840320157</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.847216857135729</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.966709287243546</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3696869962347033</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.12652001742283</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.371284985103762E-5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.008208003996982639</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.7845754778787537</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.4369194469533095</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.0506370003587424</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.1258757421395496</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.383102495640172E-5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.008208003996982639</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.7820895404107677</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.8791307568665887</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6535322396707366</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.1153288098696725</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.580934011707082E-5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.008454146913779418</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.7414453180546197</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.4449375399826585</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.7997576327916307</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.088641427135961</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.1201598403284694E-5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.009314302200963248</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.6390321979592448</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-1.3496064926880245</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.0879961799576146</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-4.080709760185086</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.291717759385959E-5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00949080759831279</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.6087134833494838</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9031171186303223</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.238870506705083</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.069305761040121</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.547983026377383E-5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.009812224424706889</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.5652175716137062</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.6999439986450158</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.8474932068128456</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.057191810193753</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.83310170314411E-5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.010175166724361246</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.5191376280575781</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7217764303565412</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.2890405817154408</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.041190490325347</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.231104275017105E-5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.010722551599738894</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.4584662398302646</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.9122807153939072</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6556521957807127</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.037300317529137</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.331691357164395E-5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.010750367698950854</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.4437497364693979</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.1216088172681857</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.0290066110076974</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.9804856428121775</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.988269834143022E-5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.013384556324733848</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.2303227092552387</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.112149600897796</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.5886797519748306</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.9716138930577665</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8.28143726541508E-5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.013695561316596834</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.1972497619787035</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-1.542476983933742</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.0651040844813893</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.9596300363549446</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.693672178050863E-5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.014192977117346114</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.1526843804943327</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9647890205221477</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7859818886045637</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.953149726464425</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.924618016909844E-5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01420798350508352</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.1286377950874282</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9445454322503596</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6608652182658689</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.9503529344520296</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9.026076122835048E-5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01420798350508352</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.1182710392640054</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.2071308297773737</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.1336741149233536</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.9500374377386755</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9.037589633357666E-5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01420798350508352</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.1171020297092662</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7764114384951064</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.530801878908899</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.9275636344236196</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.894504452020435E-5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.015183984202891907</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.0340539235786919</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-2.2410691808676373</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.13561424905706</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-3.9275035427952063</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9.896895624627206E-5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.015183984202891907</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.033832457810699</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.328314100682112</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.3362880846688192</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.9209258834318526</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.0161969123356484E-4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.015405061287716843</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.0096098223270698</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9713616063682385</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5513179672881127</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3.9148944294226466</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.0410927696650232E-4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.015596794504605183</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9874319282540096</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.622536462571119</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5061720517270001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.900487542556192</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.1029172326207026E-4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.016330869814176776</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.934586253478149</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.1362580992443285</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.656192246425979</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.8856240165529505</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.1703335944638057E-4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01712991723207138</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.8802563291160972</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9004311430438714</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5381863816451865</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.873835136176586</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.2265575983890962E-4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.017748845974871308</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.8373028590486058</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.1947256064302456</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.9079592646681283</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.862114237477902</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.2849832563552E-4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.018385367175760805</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.7947180602866366</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2.069255282453999</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.6050604514804134</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-3.832556609224999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.4442241579824385E-4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.020434167141942634</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.687864344060106</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-1.0780713584167145</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5348889698958725</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-3.7816819966754465</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.7627932772951095E-4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.024604432482685155</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.5057485907459611</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2.211114846343408</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.274027876554211</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.779533287328941</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.7776093830744732E-4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.024604432482685155</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4981070736978248</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.6315543787189597</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.5830402954765947</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.75519600808833</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.9538320254055953E-4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.026669369769706644</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.41184017214049806</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-1.4981022310069243</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.7738273302740317</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-3.753240692018687</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.9686828634776383E-4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.026669369769706644</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.40493197863181507</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9958164456566617</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.19446443547226147</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.7325584363841955</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.132419818297295E-4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.028583404174945006</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.3320677956202207</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.2499848890700382</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8732978918506371</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.7024399319607104</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.3939462202423036E-4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.03175469913392239</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.22663610395509703</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.081030525965084</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.3015259358020195</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.676690862071623</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.6411828740318446E-4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.03467301311125929</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.13713689392823625</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.325054409891243</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.41511090249347943</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.6716917725250835</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.6918862052050804E-4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.03486378396179512</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.11982907774420148</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.1492346391882307</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.1452617604152662</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.6683502621307036</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.726286409183005E-4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.03486378396179512</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.10827248218390118</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.0481562165540919</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.8294856029605886</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.6672359007597013</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.7378501619126054E-4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.03486378396179512</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.10442067197426219</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9184194055127402</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2572507921890507</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.656518332769937</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.8514459806950633E-4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.035950805067495976</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.06743146787474075</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.793203113420131</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8066788390218536</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.652231938440969</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.8981059843020317E-4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.03618086431774713</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.05266651248477583</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.116450729532623</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.30375756195147624</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.64557032158364</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.972048304545406E-4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.036344590439823216</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.02975222096366803</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.1763071113835168</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.37078782920989783</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.6443433309977133</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.985859479156318E-4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.036344590439823216</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.025535979040633094</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9127947600848371</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2298942679049819</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.6429165286377216</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.001995594163691E-4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.036344590439823216</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.020634816237631526</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.5743246153242194</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7684134815529989</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.6406601782024963</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.027680639339968E-4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.036344590439823216</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.012887790648945519</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.500727979199967</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5.10310673671107</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.6383729833319687</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.0539274203401006E-4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.036344590439823216</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0050394787973147</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-1.052404615551088</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.1212892728882276</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-3.628418063324717</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.1706750280354086E-4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.03738460722870638</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.029065824506901095</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.0020867887242666</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.67507356119865</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.6235338883033124</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.229475519746175E-4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.03763700773368549</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.04576667429955439</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-1.7913510162465522</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.95816697014686</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-3.621750944018314</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.2511943228407444E-4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.03763700773368549</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.0518579538671986</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7532886325145259</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1354234455283185</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.6184896688118253</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.291276596043736E-4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.03775776231893778</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.06299251295202613</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.1210510018712143</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.3596515519537978</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.6138625603308774</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.348942132025704E-4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.03804325772285099</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.07877403280967599</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.908674611971626</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9474225672417734</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.6099272831446587</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.3987306557128845E-4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.03804325772285099</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.09218096106426366</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.6293459447875684</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.2390901653034008</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.607759309866821</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.4264554859012784E-4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.03804325772285099</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.09956105094410983</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.1216918302612493</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.26228950929691747</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.607042875195964</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.435664078944451E-4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.03804325772285099</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.10199897727105078</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.7634066927921348</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.7783128616126527</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.602443498711895</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.4953369560351545E-4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.03837036275702729</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.11763912943385701</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7119533397009817</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.35846730305929897</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.593889121102276</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.608917519671855E-4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.038988262145212456</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.14667816246436693</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.6395311051290506</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.916606048391805</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.5935968073081823</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.6128592218745637E-4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.038988262145212456</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.14766931146056805</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7138880640165867</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.13317724965536476</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.5754507316454913</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.86561104175582E-4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0413652865594274</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.20904824893150753</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.404232982218047</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.668893602038302</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.571061668108125</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.9291875170132393E-4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.04160943402408948</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.22385015431082067</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7141446084691708</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.10750048684696127</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3.5693818425092303</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.9537784803791634E-4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.04160943402408948</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.22951074186668396</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.8680361863160025</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.15360992564749104</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3.558413587732613</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.1179231985063536E-4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.042539927457589374</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.2664091452642259</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.9938828431672455</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.1734770502398322</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.5574899081662195</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.132034111179655E-4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.042539927457589374</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.2695116062373035</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-2.6903076433453514</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.341048662555638</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-3.556579164236731</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.1459917593852355E-4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.042539927457589374</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.27256987383442066</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5830517269207761</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.09460744665345654</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.553589018908125</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.1921286164300307E-4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.042539927457589374</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.28260554504786395</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.0329194739120213</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.1164438883413716</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.5524886318467495</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.2092279406755624E-4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.042539927457589374</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.28629670994494294</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.9439452854714994</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9860632814753777</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3.5453546326553913</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.3216807106207693E-4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.043332505644917224</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.31020096217913906</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.4793082212770217</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.7528835531450718</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.5429868285562085</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.359622023433355E-4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.04337142722375027</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.3181248446501179</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.214540720028889</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.3989690096731575</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.537347348074431</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.451248209978356E-4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.043939685818499524</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.3369772747034725</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.072896868633578</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.1769036239983306</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.5352460329830686</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.4858476333642307E-4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.043940602894815474</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.3439945788822003</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-1.10153787434171</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.2114144977163115</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-3.5296903494579532</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.578542207977695E-4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.04450622631785341</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.36252869224603135</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.8004682361784528</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.6618921915825453</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.5263428333807134</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.6352568624482665E-4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.04471618248970926</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.37368291016603106</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.9213826664013722</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.0546666265083513</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.521474633149639</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.718909937778782E-4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.045129066103928785</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.38988631785825056</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.588574607276014</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.732914554612384</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.5197469544375473</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.748935808015123E-4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.045129066103928785</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.3956316651776248</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.4739328499890012</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5888129019684087</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.511475874483206</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.895174577704844E-4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0458773548683399</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.4230999592279314</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.6878588678013455</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.7294027844356156</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3.5112217778756394</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.899733204094728E-4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0458773548683399</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.42394284717148967</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.6199724545652288</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.579619531090696</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3.5026866347411403</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.055185589897407E-4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.046517354372098405</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.45222204670201993</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.4294584584793382</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4645663858610789</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.502290037819567</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.062519861646782E-4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.046517354372098405</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.4535344941592063</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.4703648721298674</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.4998187588710374</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.5014721926128516</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.077675716759603E-4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.046517354372098405</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.4562405230601483</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.0054209362304443</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.4506390158415554</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3.4915371137670643</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.265207954748959E-4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.04761746077379496</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-0.48906523963927384</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.3927012601641087</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.998376216947546</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.4902359618447454</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.290242294437745E-4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.04761746077379496</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.4933576034609981</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2.22667726040603</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.484325013216022</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.489216145672537</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.309941440143619E-4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.04761746077379496</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.49672081119921163</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.606069600044077</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.4498535757095432</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3.477717165071741</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.536857135933186E-4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.04898627699667205</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.534578387388704</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7506554235934199</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.39767510700809006</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.477584891742859</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.53951930856037E-4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.04898627699667205</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.5350131763366042</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7359370004588076</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3014487017942372</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3.4684027121270358</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.727273813671424E-4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.049998161482513306</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-0.5651571619727118</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.5349866912834065</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.833064991303657</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3.4681524504177417</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.732473359860958E-4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.049998161482513306</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.5659776839044781</v>
       </c>
     </row>
   </sheetData>
@@ -1051,105 +3923,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.008772503383740134</v>
-      </c>
-      <c r="E2" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11129.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
